--- a/output.xlsx
+++ b/output.xlsx
@@ -10,13 +10,14 @@
     <sheet name="Misses" sheetId="1" r:id="rId1"/>
     <sheet name="Breaks" sheetId="2" r:id="rId2"/>
     <sheet name="Presentation" sheetId="3" r:id="rId3"/>
+    <sheet name="Difficulty" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1640" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2245" uniqueCount="303">
   <si>
     <t>3867 Misses</t>
   </si>
@@ -698,6 +699,234 @@
   <si>
     <t>3871-5</t>
   </si>
+  <si>
+    <t>3868 Dr</t>
+  </si>
+  <si>
+    <t>Davg</t>
+  </si>
+  <si>
+    <t>3868-41 Dr</t>
+  </si>
+  <si>
+    <t>3868-42 Dr</t>
+  </si>
+  <si>
+    <t>3868-43 Dr</t>
+  </si>
+  <si>
+    <t>Judge Info</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>diffL0.5</t>
+  </si>
+  <si>
+    <t>diffL1</t>
+  </si>
+  <si>
+    <t>diffL2</t>
+  </si>
+  <si>
+    <t>diffL3</t>
+  </si>
+  <si>
+    <t>diffL4</t>
+  </si>
+  <si>
+    <t>diffL5</t>
+  </si>
+  <si>
+    <t>diffL6</t>
+  </si>
+  <si>
+    <t>diffL7</t>
+  </si>
+  <si>
+    <t>diffL8</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Heat Count</t>
+  </si>
+  <si>
+    <t>3868 Dm</t>
+  </si>
+  <si>
+    <t>3868-31 Dm</t>
+  </si>
+  <si>
+    <t>3868-32 Dm</t>
+  </si>
+  <si>
+    <t>3868-33 Dm</t>
+  </si>
+  <si>
+    <t>3868 Dp</t>
+  </si>
+  <si>
+    <t>3868-21 Dp</t>
+  </si>
+  <si>
+    <t>3868-22 Dp</t>
+  </si>
+  <si>
+    <t>3868-23 Dp</t>
+  </si>
+  <si>
+    <t>3867 Dr</t>
+  </si>
+  <si>
+    <t>3867-41 Dr</t>
+  </si>
+  <si>
+    <t>3867-42 Dr</t>
+  </si>
+  <si>
+    <t>3867-43 Dr</t>
+  </si>
+  <si>
+    <t>3867 Dm</t>
+  </si>
+  <si>
+    <t>3867-31 Dm</t>
+  </si>
+  <si>
+    <t>3867-32 Dm</t>
+  </si>
+  <si>
+    <t>3867-33 Dm</t>
+  </si>
+  <si>
+    <t>3867 Dp</t>
+  </si>
+  <si>
+    <t>3867-21 Dp</t>
+  </si>
+  <si>
+    <t>3867-22 Dp</t>
+  </si>
+  <si>
+    <t>3867-23 Dp</t>
+  </si>
+  <si>
+    <t>3870 Db</t>
+  </si>
+  <si>
+    <t>3870-31 Db</t>
+  </si>
+  <si>
+    <t>3870-32 Db</t>
+  </si>
+  <si>
+    <t>3870-33 Db</t>
+  </si>
+  <si>
+    <t>3870 Da</t>
+  </si>
+  <si>
+    <t>3870-21 Da</t>
+  </si>
+  <si>
+    <t>3870-22 Da</t>
+  </si>
+  <si>
+    <t>3870-23 Da</t>
+  </si>
+  <si>
+    <t>3869 Db</t>
+  </si>
+  <si>
+    <t>3869-31 Db</t>
+  </si>
+  <si>
+    <t>3869-32 Db</t>
+  </si>
+  <si>
+    <t>3869-33 Db</t>
+  </si>
+  <si>
+    <t>3869 Da</t>
+  </si>
+  <si>
+    <t>3869-21 Da</t>
+  </si>
+  <si>
+    <t>3869-22 Da</t>
+  </si>
+  <si>
+    <t>3869-23 Da</t>
+  </si>
+  <si>
+    <t>3872 Dj</t>
+  </si>
+  <si>
+    <t>diffL1Minus</t>
+  </si>
+  <si>
+    <t>diffL1Plus</t>
+  </si>
+  <si>
+    <t>diffL2Minus</t>
+  </si>
+  <si>
+    <t>diffL2Plus</t>
+  </si>
+  <si>
+    <t>diffL3Minus</t>
+  </si>
+  <si>
+    <t>diffL3Plus</t>
+  </si>
+  <si>
+    <t>diffL4Minus</t>
+  </si>
+  <si>
+    <t>diffL4Plus</t>
+  </si>
+  <si>
+    <t>diffL5Minus</t>
+  </si>
+  <si>
+    <t>diffL5Plus</t>
+  </si>
+  <si>
+    <t>3872 Dt</t>
+  </si>
+  <si>
+    <t>3872-31 Dt</t>
+  </si>
+  <si>
+    <t>3872-32 Dt</t>
+  </si>
+  <si>
+    <t>3872-33 Dt</t>
+  </si>
+  <si>
+    <t>3872-34 Dt</t>
+  </si>
+  <si>
+    <t>3871 Dj</t>
+  </si>
+  <si>
+    <t>3871 Dt</t>
+  </si>
+  <si>
+    <t>3871-31 Dt</t>
+  </si>
+  <si>
+    <t>3871-32 Dt</t>
+  </si>
+  <si>
+    <t>3871-33 Dt</t>
+  </si>
+  <si>
+    <t>3871-34 Dt</t>
+  </si>
 </sst>
 </file>
 
@@ -32362,4 +32591,7675 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S382"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="1">
+        <v>6.07</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3.98</v>
+      </c>
+      <c r="D3" s="1">
+        <v>7.92</v>
+      </c>
+      <c r="E3" s="1">
+        <v>6.32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="1">
+        <v>5.7</v>
+      </c>
+      <c r="C4" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="D4" s="1">
+        <v>5.77</v>
+      </c>
+      <c r="E4" s="1">
+        <v>5.54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="1">
+        <v>5.33</v>
+      </c>
+      <c r="C5" s="1">
+        <v>5.01</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4.67</v>
+      </c>
+      <c r="E5" s="1">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5.31</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3.64</v>
+      </c>
+      <c r="D6" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>6.09</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5.07</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3.57</v>
+      </c>
+      <c r="D7" s="1">
+        <v>6.85</v>
+      </c>
+      <c r="E7" s="1">
+        <v>4.79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4.82</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5.85</v>
+      </c>
+      <c r="D8" s="1">
+        <v>4.22</v>
+      </c>
+      <c r="E8" s="1">
+        <v>4.39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="1">
+        <v>4.58</v>
+      </c>
+      <c r="C9" s="1">
+        <v>4.86</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="E9" s="1">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="C10" s="1">
+        <v>5.71</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3.17</v>
+      </c>
+      <c r="E10" s="1">
+        <v>4.62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="1">
+        <v>4.41</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3.96</v>
+      </c>
+      <c r="D11" s="1">
+        <v>4.33</v>
+      </c>
+      <c r="E11" s="1">
+        <v>4.94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="1">
+        <v>4.25</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2.94</v>
+      </c>
+      <c r="D12" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="E12" s="1">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="1">
+        <v>4.09</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2.98</v>
+      </c>
+      <c r="D13" s="1">
+        <v>4.87</v>
+      </c>
+      <c r="E13" s="1">
+        <v>4.43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="1">
+        <v>3.78</v>
+      </c>
+      <c r="C14" s="1">
+        <v>4.58</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2.94</v>
+      </c>
+      <c r="E14" s="1">
+        <v>3.83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="1">
+        <v>3.72</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3.54</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3.81</v>
+      </c>
+      <c r="E15" s="1">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="1">
+        <v>3.63</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>5.97</v>
+      </c>
+      <c r="E16" s="1">
+        <v>4.91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="1">
+        <v>3.62</v>
+      </c>
+      <c r="C17" s="1">
+        <v>3.83</v>
+      </c>
+      <c r="D17" s="1">
+        <v>3.18</v>
+      </c>
+      <c r="E17" s="1">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="1">
+        <v>3.39</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2.37</v>
+      </c>
+      <c r="D18" s="1">
+        <v>3.62</v>
+      </c>
+      <c r="E18" s="1">
+        <v>4.17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="1">
+        <v>3.29</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2.54</v>
+      </c>
+      <c r="D19" s="1">
+        <v>4.38</v>
+      </c>
+      <c r="E19" s="1">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="1">
+        <v>3.09</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2.39</v>
+      </c>
+      <c r="D20" s="1">
+        <v>3.26</v>
+      </c>
+      <c r="E20" s="1">
+        <v>3.63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2.99</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2.74</v>
+      </c>
+      <c r="D21" s="1">
+        <v>3.49</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2.73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2.94</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2.87</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2.74</v>
+      </c>
+      <c r="E22" s="1">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="1">
+        <v>2.89</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2.54</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2.96</v>
+      </c>
+      <c r="E23" s="1">
+        <v>3.17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2.89</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1">
+        <v>4.35</v>
+      </c>
+      <c r="E24" s="1">
+        <v>4.31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="1">
+        <v>2.86</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2.43</v>
+      </c>
+      <c r="D25" s="1">
+        <v>2.61</v>
+      </c>
+      <c r="E25" s="1">
+        <v>3.55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="1">
+        <v>2.75</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2.39</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2.55</v>
+      </c>
+      <c r="E26" s="1">
+        <v>3.31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" s="1">
+        <v>2.66</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1">
+        <v>3.23</v>
+      </c>
+      <c r="E27" s="1">
+        <v>4.76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="1">
+        <v>2.58</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1">
+        <v>3.61</v>
+      </c>
+      <c r="E28" s="1">
+        <v>4.12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" s="1">
+        <v>2.47</v>
+      </c>
+      <c r="C29" s="1">
+        <v>2.35</v>
+      </c>
+      <c r="D29" s="1">
+        <v>2.75</v>
+      </c>
+      <c r="E29" s="1">
+        <v>2.32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" s="1">
+        <v>2.12</v>
+      </c>
+      <c r="C30" s="1">
+        <v>2.31</v>
+      </c>
+      <c r="D30" s="1">
+        <v>2.12</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1.73</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1">
+        <v>2.68</v>
+      </c>
+      <c r="E31" s="1">
+        <v>2.51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1.41</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1.46</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1.15</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1.08</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1.14</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B36" s="1">
+        <v>3.38</v>
+      </c>
+      <c r="C36" s="1">
+        <v>21</v>
+      </c>
+      <c r="D36" s="1">
+        <v>118</v>
+      </c>
+      <c r="E36" s="1">
+        <v>158</v>
+      </c>
+      <c r="F36" s="1">
+        <v>54</v>
+      </c>
+      <c r="G36" s="1">
+        <v>20</v>
+      </c>
+      <c r="H36" s="1">
+        <v>2</v>
+      </c>
+      <c r="I36" s="1">
+        <v>1</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0</v>
+      </c>
+      <c r="K36" s="1">
+        <v>0</v>
+      </c>
+      <c r="L36" s="1">
+        <v>14.38</v>
+      </c>
+      <c r="M36" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B37" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="C37" s="1">
+        <v>26</v>
+      </c>
+      <c r="D37" s="1">
+        <v>198</v>
+      </c>
+      <c r="E37" s="1">
+        <v>209</v>
+      </c>
+      <c r="F37" s="1">
+        <v>59</v>
+      </c>
+      <c r="G37" s="1">
+        <v>19</v>
+      </c>
+      <c r="H37" s="1">
+        <v>2</v>
+      </c>
+      <c r="I37" s="1">
+        <v>2</v>
+      </c>
+      <c r="J37" s="1">
+        <v>2</v>
+      </c>
+      <c r="K37" s="1">
+        <v>0</v>
+      </c>
+      <c r="L37" s="1">
+        <v>16.68</v>
+      </c>
+      <c r="M37" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B38" s="1">
+        <v>4.01</v>
+      </c>
+      <c r="C38" s="1">
+        <v>22</v>
+      </c>
+      <c r="D38" s="1">
+        <v>72</v>
+      </c>
+      <c r="E38" s="1">
+        <v>235</v>
+      </c>
+      <c r="F38" s="1">
+        <v>118</v>
+      </c>
+      <c r="G38" s="1">
+        <v>24</v>
+      </c>
+      <c r="H38" s="1">
+        <v>3</v>
+      </c>
+      <c r="I38" s="1">
+        <v>2</v>
+      </c>
+      <c r="J38" s="1">
+        <v>0</v>
+      </c>
+      <c r="K38" s="1">
+        <v>0</v>
+      </c>
+      <c r="L38" s="1">
+        <v>15.35</v>
+      </c>
+      <c r="M38" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B42" s="1">
+        <v>5.53</v>
+      </c>
+      <c r="C42" s="1">
+        <v>4.42</v>
+      </c>
+      <c r="D42" s="1">
+        <v>5.1</v>
+      </c>
+      <c r="E42" s="1">
+        <v>7.08</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B43" s="1">
+        <v>5.34</v>
+      </c>
+      <c r="C43" s="1">
+        <v>5.13</v>
+      </c>
+      <c r="D43" s="1">
+        <v>5.13</v>
+      </c>
+      <c r="E43" s="1">
+        <v>5.76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44" s="1">
+        <v>5.29</v>
+      </c>
+      <c r="C44" s="1">
+        <v>4.39</v>
+      </c>
+      <c r="D44" s="1">
+        <v>6.26</v>
+      </c>
+      <c r="E44" s="1">
+        <v>5.22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B45" s="1">
+        <v>5.01</v>
+      </c>
+      <c r="C45" s="1">
+        <v>5.47</v>
+      </c>
+      <c r="D45" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="E45" s="1">
+        <v>3.96</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B46" s="1">
+        <v>4.97</v>
+      </c>
+      <c r="C46" s="1">
+        <v>3.69</v>
+      </c>
+      <c r="D46" s="1">
+        <v>5.68</v>
+      </c>
+      <c r="E46" s="1">
+        <v>5.54</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B47" s="1">
+        <v>4.29</v>
+      </c>
+      <c r="C47" s="1">
+        <v>4.64</v>
+      </c>
+      <c r="D47" s="1">
+        <v>3.01</v>
+      </c>
+      <c r="E47" s="1">
+        <v>5.22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B48" s="1">
+        <v>4.13</v>
+      </c>
+      <c r="C48" s="1">
+        <v>4.64</v>
+      </c>
+      <c r="D48" s="1">
+        <v>3.51</v>
+      </c>
+      <c r="E48" s="1">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B49" s="1">
+        <v>3.97</v>
+      </c>
+      <c r="C49" s="1">
+        <v>4.41</v>
+      </c>
+      <c r="D49" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="E49" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B50" s="1">
+        <v>3.73</v>
+      </c>
+      <c r="C50" s="1">
+        <v>3.58</v>
+      </c>
+      <c r="D50" s="1">
+        <v>4.63</v>
+      </c>
+      <c r="E50" s="1">
+        <v>2.97</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51" s="1">
+        <v>3.44</v>
+      </c>
+      <c r="C51" s="1">
+        <v>3.77</v>
+      </c>
+      <c r="D51" s="1">
+        <v>3.26</v>
+      </c>
+      <c r="E51" s="1">
+        <v>3.29</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B52" s="1">
+        <v>3.44</v>
+      </c>
+      <c r="C52" s="1">
+        <v>3.73</v>
+      </c>
+      <c r="D52" s="1">
+        <v>3.52</v>
+      </c>
+      <c r="E52" s="1">
+        <v>3.07</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B53" s="1">
+        <v>3.23</v>
+      </c>
+      <c r="C53" s="1">
+        <v>3.82</v>
+      </c>
+      <c r="D53" s="1">
+        <v>3.18</v>
+      </c>
+      <c r="E53" s="1">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B54" s="1">
+        <v>3.18</v>
+      </c>
+      <c r="C54" s="1">
+        <v>3.63</v>
+      </c>
+      <c r="D54" s="1">
+        <v>2.93</v>
+      </c>
+      <c r="E54" s="1">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B55" s="1">
+        <v>3.05</v>
+      </c>
+      <c r="C55" s="1">
+        <v>2.75</v>
+      </c>
+      <c r="D55" s="1">
+        <v>3.33</v>
+      </c>
+      <c r="E55" s="1">
+        <v>3.08</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B56" s="1">
+        <v>2.93</v>
+      </c>
+      <c r="C56" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="D56" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="E56" s="1">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B57" s="1">
+        <v>2.91</v>
+      </c>
+      <c r="C57" s="1">
+        <v>3.03</v>
+      </c>
+      <c r="D57" s="1">
+        <v>2.31</v>
+      </c>
+      <c r="E57" s="1">
+        <v>3.38</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1">
+        <v>2.86</v>
+      </c>
+      <c r="C58" s="1">
+        <v>2.59</v>
+      </c>
+      <c r="D58" s="1">
+        <v>3.81</v>
+      </c>
+      <c r="E58" s="1">
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B59" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="C59" s="1">
+        <v>2.98</v>
+      </c>
+      <c r="D59" s="1">
+        <v>3.04</v>
+      </c>
+      <c r="E59" s="1">
+        <v>2.39</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B60" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="C60" s="1">
+        <v>3.27</v>
+      </c>
+      <c r="D60" s="1">
+        <v>2.33</v>
+      </c>
+      <c r="E60" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B61" s="1">
+        <v>2.67</v>
+      </c>
+      <c r="C61" s="1">
+        <v>3.39</v>
+      </c>
+      <c r="D61" s="1">
+        <v>2.52</v>
+      </c>
+      <c r="E61" s="1">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B62" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="C62" s="1">
+        <v>3.01</v>
+      </c>
+      <c r="D62" s="1">
+        <v>2.66</v>
+      </c>
+      <c r="E62" s="1">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1">
+        <v>2.56</v>
+      </c>
+      <c r="C63" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="D63" s="1">
+        <v>2.73</v>
+      </c>
+      <c r="E63" s="1">
+        <v>2.44</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B64" s="1">
+        <v>2.28</v>
+      </c>
+      <c r="C64" s="1">
+        <v>2.04</v>
+      </c>
+      <c r="D64" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="E64" s="1">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="A65" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B65" s="1">
+        <v>1.96</v>
+      </c>
+      <c r="C65" s="1">
+        <v>0</v>
+      </c>
+      <c r="D65" s="1">
+        <v>2.52</v>
+      </c>
+      <c r="E65" s="1">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="A66" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B66" s="1">
+        <v>1.88</v>
+      </c>
+      <c r="C66" s="1">
+        <v>2.03</v>
+      </c>
+      <c r="D66" s="1">
+        <v>2.79</v>
+      </c>
+      <c r="E66" s="1">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="A67" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B67" s="1">
+        <v>1.77</v>
+      </c>
+      <c r="C67" s="1">
+        <v>2.14</v>
+      </c>
+      <c r="D67" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="E67" s="1">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="A68" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B68" s="1">
+        <v>1.71</v>
+      </c>
+      <c r="C68" s="1">
+        <v>2.01</v>
+      </c>
+      <c r="D68" s="1">
+        <v>1.44</v>
+      </c>
+      <c r="E68" s="1">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="A69" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B69" s="1">
+        <v>1.59</v>
+      </c>
+      <c r="C69" s="1">
+        <v>1.67</v>
+      </c>
+      <c r="D69" s="1">
+        <v>1.67</v>
+      </c>
+      <c r="E69" s="1">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
+      <c r="A70" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B70" s="1">
+        <v>1.51</v>
+      </c>
+      <c r="C70" s="1">
+        <v>1.56</v>
+      </c>
+      <c r="D70" s="1">
+        <v>1.41</v>
+      </c>
+      <c r="E70" s="1">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
+      <c r="A71" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B71" s="1">
+        <v>1.14</v>
+      </c>
+      <c r="C71" s="1">
+        <v>1.86</v>
+      </c>
+      <c r="D71" s="1">
+        <v>1.56</v>
+      </c>
+      <c r="E71" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
+      <c r="A72" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B72" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="C72" s="1">
+        <v>1.67</v>
+      </c>
+      <c r="D72" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="E72" s="1">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="A74" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="M74" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
+      <c r="A75" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B75" s="1">
+        <v>3.22</v>
+      </c>
+      <c r="C75" s="1">
+        <v>0</v>
+      </c>
+      <c r="D75" s="1">
+        <v>41</v>
+      </c>
+      <c r="E75" s="1">
+        <v>77</v>
+      </c>
+      <c r="F75" s="1">
+        <v>102</v>
+      </c>
+      <c r="G75" s="1">
+        <v>54</v>
+      </c>
+      <c r="H75" s="1">
+        <v>11</v>
+      </c>
+      <c r="I75" s="1">
+        <v>2</v>
+      </c>
+      <c r="J75" s="1">
+        <v>0</v>
+      </c>
+      <c r="K75" s="1">
+        <v>0</v>
+      </c>
+      <c r="L75" s="1">
+        <v>9.57</v>
+      </c>
+      <c r="M75" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
+      <c r="A76" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B76" s="1">
+        <v>3.12</v>
+      </c>
+      <c r="C76" s="1">
+        <v>0</v>
+      </c>
+      <c r="D76" s="1">
+        <v>45</v>
+      </c>
+      <c r="E76" s="1">
+        <v>81</v>
+      </c>
+      <c r="F76" s="1">
+        <v>101</v>
+      </c>
+      <c r="G76" s="1">
+        <v>47</v>
+      </c>
+      <c r="H76" s="1">
+        <v>12</v>
+      </c>
+      <c r="I76" s="1">
+        <v>2</v>
+      </c>
+      <c r="J76" s="1">
+        <v>1</v>
+      </c>
+      <c r="K76" s="1">
+        <v>0</v>
+      </c>
+      <c r="L76" s="1">
+        <v>9.32</v>
+      </c>
+      <c r="M76" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
+      <c r="A77" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B77" s="1">
+        <v>3.09</v>
+      </c>
+      <c r="C77" s="1">
+        <v>0</v>
+      </c>
+      <c r="D77" s="1">
+        <v>24</v>
+      </c>
+      <c r="E77" s="1">
+        <v>85</v>
+      </c>
+      <c r="F77" s="1">
+        <v>92</v>
+      </c>
+      <c r="G77" s="1">
+        <v>44</v>
+      </c>
+      <c r="H77" s="1">
+        <v>15</v>
+      </c>
+      <c r="I77" s="1">
+        <v>4</v>
+      </c>
+      <c r="J77" s="1">
+        <v>0</v>
+      </c>
+      <c r="K77" s="1">
+        <v>0</v>
+      </c>
+      <c r="L77" s="1">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="M77" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
+      <c r="A79" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
+      <c r="A80" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B81" s="1">
+        <v>4.67</v>
+      </c>
+      <c r="C81" s="1">
+        <v>6.75</v>
+      </c>
+      <c r="D81" s="1">
+        <v>7.26</v>
+      </c>
+      <c r="E81" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B82" s="1">
+        <v>4.27</v>
+      </c>
+      <c r="C82" s="1">
+        <v>6.8</v>
+      </c>
+      <c r="D82" s="1">
+        <v>6.02</v>
+      </c>
+      <c r="E82" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B83" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="C83" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="D83" s="1">
+        <v>3.99</v>
+      </c>
+      <c r="E83" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84" s="1">
+        <v>2.49</v>
+      </c>
+      <c r="C84" s="1">
+        <v>4.17</v>
+      </c>
+      <c r="D84" s="1">
+        <v>3.29</v>
+      </c>
+      <c r="E84" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B85" s="1">
+        <v>2.23</v>
+      </c>
+      <c r="C85" s="1">
+        <v>3.93</v>
+      </c>
+      <c r="D85" s="1">
+        <v>2.77</v>
+      </c>
+      <c r="E85" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B86" s="1">
+        <v>2.2</v>
+      </c>
+      <c r="C86" s="1">
+        <v>2.99</v>
+      </c>
+      <c r="D86" s="1">
+        <v>3.61</v>
+      </c>
+      <c r="E86" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B87" s="1">
+        <v>2.15</v>
+      </c>
+      <c r="C87" s="1">
+        <v>3.26</v>
+      </c>
+      <c r="D87" s="1">
+        <v>3.18</v>
+      </c>
+      <c r="E87" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B88" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="C88" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="D88" s="1">
+        <v>3.11</v>
+      </c>
+      <c r="E88" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B89" s="1">
+        <v>2.09</v>
+      </c>
+      <c r="C89" s="1">
+        <v>3.37</v>
+      </c>
+      <c r="D89" s="1">
+        <v>2.89</v>
+      </c>
+      <c r="E89" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B90" s="1">
+        <v>2.06</v>
+      </c>
+      <c r="C90" s="1">
+        <v>3.01</v>
+      </c>
+      <c r="D90" s="1">
+        <v>3.17</v>
+      </c>
+      <c r="E90" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B91" s="1">
+        <v>1.94</v>
+      </c>
+      <c r="C91" s="1">
+        <v>2.69</v>
+      </c>
+      <c r="D91" s="1">
+        <v>3.12</v>
+      </c>
+      <c r="E91" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B92" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="C92" s="1">
+        <v>3.58</v>
+      </c>
+      <c r="D92" s="1">
+        <v>2.12</v>
+      </c>
+      <c r="E92" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B93" s="1">
+        <v>1.72</v>
+      </c>
+      <c r="C93" s="1">
+        <v>2.24</v>
+      </c>
+      <c r="D93" s="1">
+        <v>2.91</v>
+      </c>
+      <c r="E93" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B94" s="1">
+        <v>1.72</v>
+      </c>
+      <c r="C94" s="1">
+        <v>2.43</v>
+      </c>
+      <c r="D94" s="1">
+        <v>2.73</v>
+      </c>
+      <c r="E94" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B95" s="1">
+        <v>1.62</v>
+      </c>
+      <c r="C95" s="1">
+        <v>2.67</v>
+      </c>
+      <c r="D95" s="1">
+        <v>2.2</v>
+      </c>
+      <c r="E95" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B96" s="1">
+        <v>1.35</v>
+      </c>
+      <c r="C96" s="1">
+        <v>2.23</v>
+      </c>
+      <c r="D96" s="1">
+        <v>1.82</v>
+      </c>
+      <c r="E96" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B97" s="1">
+        <v>1.32</v>
+      </c>
+      <c r="C97" s="1">
+        <v>1.85</v>
+      </c>
+      <c r="D97" s="1">
+        <v>2.11</v>
+      </c>
+      <c r="E97" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B98" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="C98" s="1">
+        <v>2.49</v>
+      </c>
+      <c r="D98" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="E98" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B99" s="1">
+        <v>1.29</v>
+      </c>
+      <c r="C99" s="1">
+        <v>2.01</v>
+      </c>
+      <c r="D99" s="1">
+        <v>1.86</v>
+      </c>
+      <c r="E99" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B100" s="1">
+        <v>1.27</v>
+      </c>
+      <c r="C100" s="1">
+        <v>1.82</v>
+      </c>
+      <c r="D100" s="1">
+        <v>2</v>
+      </c>
+      <c r="E100" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B101" s="1">
+        <v>1.26</v>
+      </c>
+      <c r="C101" s="1">
+        <v>1.93</v>
+      </c>
+      <c r="D101" s="1">
+        <v>1.84</v>
+      </c>
+      <c r="E101" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B102" s="1">
+        <v>1.21</v>
+      </c>
+      <c r="C102" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="D102" s="1">
+        <v>1.74</v>
+      </c>
+      <c r="E102" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B103" s="1">
+        <v>1.11</v>
+      </c>
+      <c r="C103" s="1">
+        <v>1.44</v>
+      </c>
+      <c r="D103" s="1">
+        <v>1.89</v>
+      </c>
+      <c r="E103" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B104" s="1">
+        <v>1.03</v>
+      </c>
+      <c r="C104" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="D104" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="E104" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B105" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="C105" s="1">
+        <v>1.71</v>
+      </c>
+      <c r="D105" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="E105" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B106" s="1">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="C106" s="1">
+        <v>1.76</v>
+      </c>
+      <c r="D106" s="1">
+        <v>1.06</v>
+      </c>
+      <c r="E106" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B107" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="C107" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="D107" s="1">
+        <v>1.67</v>
+      </c>
+      <c r="E107" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B108" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="C108" s="1">
+        <v>1.43</v>
+      </c>
+      <c r="D108" s="1">
+        <v>1.24</v>
+      </c>
+      <c r="E108" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B109" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="C109" s="1">
+        <v>1.14</v>
+      </c>
+      <c r="D109" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="E109" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B110" s="1">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="C110" s="1">
+        <v>1.06</v>
+      </c>
+      <c r="D110" s="1">
+        <v>0.61</v>
+      </c>
+      <c r="E110" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B111" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="C111" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="D111" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E111" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13">
+      <c r="A113" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="K113" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="L113" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="M113" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13">
+      <c r="A114" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B114" s="1">
+        <v>2.58</v>
+      </c>
+      <c r="C114" s="1">
+        <v>0</v>
+      </c>
+      <c r="D114" s="1">
+        <v>100</v>
+      </c>
+      <c r="E114" s="1">
+        <v>75</v>
+      </c>
+      <c r="F114" s="1">
+        <v>71</v>
+      </c>
+      <c r="G114" s="1">
+        <v>23</v>
+      </c>
+      <c r="H114" s="1">
+        <v>14</v>
+      </c>
+      <c r="I114" s="1">
+        <v>1</v>
+      </c>
+      <c r="J114" s="1">
+        <v>0</v>
+      </c>
+      <c r="K114" s="1">
+        <v>0</v>
+      </c>
+      <c r="L114" s="1">
+        <v>9.16</v>
+      </c>
+      <c r="M114" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13">
+      <c r="A115" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B115" s="1">
+        <v>2.44</v>
+      </c>
+      <c r="C115" s="1">
+        <v>0</v>
+      </c>
+      <c r="D115" s="1">
+        <v>122</v>
+      </c>
+      <c r="E115" s="1">
+        <v>80</v>
+      </c>
+      <c r="F115" s="1">
+        <v>61</v>
+      </c>
+      <c r="G115" s="1">
+        <v>27</v>
+      </c>
+      <c r="H115" s="1">
+        <v>6</v>
+      </c>
+      <c r="I115" s="1">
+        <v>0</v>
+      </c>
+      <c r="J115" s="1">
+        <v>0</v>
+      </c>
+      <c r="K115" s="1">
+        <v>0</v>
+      </c>
+      <c r="L115" s="1">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="M115" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13">
+      <c r="A116" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B116" s="1">
+        <v>0</v>
+      </c>
+      <c r="C116" s="1">
+        <v>0</v>
+      </c>
+      <c r="D116" s="1">
+        <v>0</v>
+      </c>
+      <c r="E116" s="1">
+        <v>0</v>
+      </c>
+      <c r="F116" s="1">
+        <v>0</v>
+      </c>
+      <c r="G116" s="1">
+        <v>0</v>
+      </c>
+      <c r="H116" s="1">
+        <v>0</v>
+      </c>
+      <c r="I116" s="1">
+        <v>0</v>
+      </c>
+      <c r="J116" s="1">
+        <v>0</v>
+      </c>
+      <c r="K116" s="1">
+        <v>0</v>
+      </c>
+      <c r="L116" s="1">
+        <v>0</v>
+      </c>
+      <c r="M116" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13">
+      <c r="A118" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13">
+      <c r="A119" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13">
+      <c r="A120" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B120" s="1">
+        <v>5.79</v>
+      </c>
+      <c r="C120" s="1">
+        <v>4.88</v>
+      </c>
+      <c r="D120" s="1">
+        <v>6.81</v>
+      </c>
+      <c r="E120" s="1">
+        <v>5.67</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13">
+      <c r="A121" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B121" s="1">
+        <v>5.71</v>
+      </c>
+      <c r="C121" s="1">
+        <v>5.79</v>
+      </c>
+      <c r="D121" s="1">
+        <v>4.88</v>
+      </c>
+      <c r="E121" s="1">
+        <v>6.46</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13">
+      <c r="A122" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B122" s="1">
+        <v>4.84</v>
+      </c>
+      <c r="C122" s="1">
+        <v>4.56</v>
+      </c>
+      <c r="D122" s="1">
+        <v>5.65</v>
+      </c>
+      <c r="E122" s="1">
+        <v>4.32</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13">
+      <c r="A123" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B123" s="1">
+        <v>4.52</v>
+      </c>
+      <c r="C123" s="1">
+        <v>4.14</v>
+      </c>
+      <c r="D123" s="1">
+        <v>4.96</v>
+      </c>
+      <c r="E123" s="1">
+        <v>4.47</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13">
+      <c r="A124" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B124" s="1">
+        <v>4.38</v>
+      </c>
+      <c r="C124" s="1">
+        <v>4.58</v>
+      </c>
+      <c r="D124" s="1">
+        <v>3.57</v>
+      </c>
+      <c r="E124" s="1">
+        <v>4.98</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13">
+      <c r="A125" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B125" s="1">
+        <v>4.36</v>
+      </c>
+      <c r="C125" s="1">
+        <v>4.18</v>
+      </c>
+      <c r="D125" s="1">
+        <v>4.47</v>
+      </c>
+      <c r="E125" s="1">
+        <v>4.42</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13">
+      <c r="A126" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B126" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="C126" s="1">
+        <v>4.11</v>
+      </c>
+      <c r="D126" s="1">
+        <v>5.17</v>
+      </c>
+      <c r="E126" s="1">
+        <v>3.61</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13">
+      <c r="A127" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B127" s="1">
+        <v>4.11</v>
+      </c>
+      <c r="C127" s="1">
+        <v>4.59</v>
+      </c>
+      <c r="D127" s="1">
+        <v>3.72</v>
+      </c>
+      <c r="E127" s="1">
+        <v>4.02</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13">
+      <c r="A128" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B128" s="1">
+        <v>4.05</v>
+      </c>
+      <c r="C128" s="1">
+        <v>2.37</v>
+      </c>
+      <c r="D128" s="1">
+        <v>3.93</v>
+      </c>
+      <c r="E128" s="1">
+        <v>5.85</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B129" s="1">
+        <v>3.95</v>
+      </c>
+      <c r="C129" s="1">
+        <v>3.82</v>
+      </c>
+      <c r="D129" s="1">
+        <v>3.66</v>
+      </c>
+      <c r="E129" s="1">
+        <v>4.37</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B130" s="1">
+        <v>3.94</v>
+      </c>
+      <c r="C130" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="D130" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="E130" s="1">
+        <v>3.73</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B131" s="1">
+        <v>3.87</v>
+      </c>
+      <c r="C131" s="1">
+        <v>3.86</v>
+      </c>
+      <c r="D131" s="1">
+        <v>4.39</v>
+      </c>
+      <c r="E131" s="1">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B132" s="1">
+        <v>3.59</v>
+      </c>
+      <c r="C132" s="1">
+        <v>3.74</v>
+      </c>
+      <c r="D132" s="1">
+        <v>3.28</v>
+      </c>
+      <c r="E132" s="1">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B133" s="1">
+        <v>3.34</v>
+      </c>
+      <c r="C133" s="1">
+        <v>3.21</v>
+      </c>
+      <c r="D133" s="1">
+        <v>4.07</v>
+      </c>
+      <c r="E133" s="1">
+        <v>2.73</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B134" s="1">
+        <v>3.23</v>
+      </c>
+      <c r="C134" s="1">
+        <v>3.36</v>
+      </c>
+      <c r="D134" s="1">
+        <v>3.51</v>
+      </c>
+      <c r="E134" s="1">
+        <v>2.81</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B135" s="1">
+        <v>2.99</v>
+      </c>
+      <c r="C135" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="D135" s="1">
+        <v>2.82</v>
+      </c>
+      <c r="E135" s="1">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B136" s="1">
+        <v>2.66</v>
+      </c>
+      <c r="C136" s="1">
+        <v>2.55</v>
+      </c>
+      <c r="D136" s="1">
+        <v>3.05</v>
+      </c>
+      <c r="E136" s="1">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B137" s="1">
+        <v>2.63</v>
+      </c>
+      <c r="C137" s="1">
+        <v>3.33</v>
+      </c>
+      <c r="D137" s="1">
+        <v>1.97</v>
+      </c>
+      <c r="E137" s="1">
+        <v>2.58</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B138" s="1">
+        <v>2.63</v>
+      </c>
+      <c r="C138" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="D138" s="1">
+        <v>2.66</v>
+      </c>
+      <c r="E138" s="1">
+        <v>2.83</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B139" s="1">
+        <v>2.61</v>
+      </c>
+      <c r="C139" s="1">
+        <v>2.49</v>
+      </c>
+      <c r="D139" s="1">
+        <v>3.47</v>
+      </c>
+      <c r="E139" s="1">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B140" s="1">
+        <v>2.31</v>
+      </c>
+      <c r="C140" s="1">
+        <v>2.03</v>
+      </c>
+      <c r="D140" s="1">
+        <v>2.48</v>
+      </c>
+      <c r="E140" s="1">
+        <v>2.43</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B141" s="1">
+        <v>2.3</v>
+      </c>
+      <c r="C141" s="1">
+        <v>1.71</v>
+      </c>
+      <c r="D141" s="1">
+        <v>2.32</v>
+      </c>
+      <c r="E141" s="1">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B142" s="1">
+        <v>2.04</v>
+      </c>
+      <c r="C142" s="1">
+        <v>1.53</v>
+      </c>
+      <c r="D142" s="1">
+        <v>2.25</v>
+      </c>
+      <c r="E142" s="1">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B143" s="1">
+        <v>2.02</v>
+      </c>
+      <c r="C143" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="D143" s="1">
+        <v>2.25</v>
+      </c>
+      <c r="E143" s="1">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B144" s="1">
+        <v>1.94</v>
+      </c>
+      <c r="C144" s="1">
+        <v>1.88</v>
+      </c>
+      <c r="D144" s="1">
+        <v>2.18</v>
+      </c>
+      <c r="E144" s="1">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13">
+      <c r="A145" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B145" s="1">
+        <v>1.75</v>
+      </c>
+      <c r="C145" s="1">
+        <v>1.38</v>
+      </c>
+      <c r="D145" s="1">
+        <v>2.24</v>
+      </c>
+      <c r="E145" s="1">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13">
+      <c r="A146" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B146" s="1">
+        <v>1.67</v>
+      </c>
+      <c r="C146" s="1">
+        <v>2.37</v>
+      </c>
+      <c r="D146" s="1">
+        <v>0</v>
+      </c>
+      <c r="E146" s="1">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13">
+      <c r="A147" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B147" s="1">
+        <v>1.37</v>
+      </c>
+      <c r="C147" s="1">
+        <v>1.43</v>
+      </c>
+      <c r="D147" s="1">
+        <v>1.61</v>
+      </c>
+      <c r="E147" s="1">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13">
+      <c r="A148" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B148" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="C148" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="D148" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="E148" s="1">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13">
+      <c r="A149" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B149" s="1">
+        <v>0.28</v>
+      </c>
+      <c r="C149" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="D149" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="E149" s="1">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13">
+      <c r="A151" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="I151" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="J151" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="K151" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="L151" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="M151" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13">
+      <c r="A152" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B152" s="1">
+        <v>3.01</v>
+      </c>
+      <c r="C152" s="1">
+        <v>27</v>
+      </c>
+      <c r="D152" s="1">
+        <v>112</v>
+      </c>
+      <c r="E152" s="1">
+        <v>182</v>
+      </c>
+      <c r="F152" s="1">
+        <v>52</v>
+      </c>
+      <c r="G152" s="1">
+        <v>13</v>
+      </c>
+      <c r="H152" s="1">
+        <v>1</v>
+      </c>
+      <c r="I152" s="1">
+        <v>3</v>
+      </c>
+      <c r="J152" s="1">
+        <v>0</v>
+      </c>
+      <c r="K152" s="1">
+        <v>0</v>
+      </c>
+      <c r="L152" s="1">
+        <v>13</v>
+      </c>
+      <c r="M152" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13">
+      <c r="A153" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B153" s="1">
+        <v>3.35</v>
+      </c>
+      <c r="C153" s="1">
+        <v>28</v>
+      </c>
+      <c r="D153" s="1">
+        <v>190</v>
+      </c>
+      <c r="E153" s="1">
+        <v>188</v>
+      </c>
+      <c r="F153" s="1">
+        <v>50</v>
+      </c>
+      <c r="G153" s="1">
+        <v>10</v>
+      </c>
+      <c r="H153" s="1">
+        <v>0</v>
+      </c>
+      <c r="I153" s="1">
+        <v>0</v>
+      </c>
+      <c r="J153" s="1">
+        <v>0</v>
+      </c>
+      <c r="K153" s="1">
+        <v>0</v>
+      </c>
+      <c r="L153" s="1">
+        <v>16.07</v>
+      </c>
+      <c r="M153" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13">
+      <c r="A154" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B154" s="1">
+        <v>3.18</v>
+      </c>
+      <c r="C154" s="1">
+        <v>18</v>
+      </c>
+      <c r="D154" s="1">
+        <v>176</v>
+      </c>
+      <c r="E154" s="1">
+        <v>169</v>
+      </c>
+      <c r="F154" s="1">
+        <v>56</v>
+      </c>
+      <c r="G154" s="1">
+        <v>14</v>
+      </c>
+      <c r="H154" s="1">
+        <v>1</v>
+      </c>
+      <c r="I154" s="1">
+        <v>1</v>
+      </c>
+      <c r="J154" s="1">
+        <v>0</v>
+      </c>
+      <c r="K154" s="1">
+        <v>0</v>
+      </c>
+      <c r="L154" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="M154" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13">
+      <c r="A156" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13">
+      <c r="A157" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13">
+      <c r="A158" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B158" s="1">
+        <v>6.25</v>
+      </c>
+      <c r="C158" s="1">
+        <v>6.41</v>
+      </c>
+      <c r="D158" s="1">
+        <v>12.33</v>
+      </c>
+      <c r="E158" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13">
+      <c r="A159" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B159" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="C159" s="1">
+        <v>8.83</v>
+      </c>
+      <c r="D159" s="1">
+        <v>9.779999999999999</v>
+      </c>
+      <c r="E159" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13">
+      <c r="A160" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B160" s="1">
+        <v>5.88</v>
+      </c>
+      <c r="C160" s="1">
+        <v>7.83</v>
+      </c>
+      <c r="D160" s="1">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="E160" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B161" s="1">
+        <v>5.33</v>
+      </c>
+      <c r="C161" s="1">
+        <v>6.65</v>
+      </c>
+      <c r="D161" s="1">
+        <v>9.35</v>
+      </c>
+      <c r="E161" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B162" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="C162" s="1">
+        <v>7.43</v>
+      </c>
+      <c r="D162" s="1">
+        <v>8.470000000000001</v>
+      </c>
+      <c r="E162" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B163" s="1">
+        <v>4.24</v>
+      </c>
+      <c r="C163" s="1">
+        <v>6.24</v>
+      </c>
+      <c r="D163" s="1">
+        <v>6.47</v>
+      </c>
+      <c r="E163" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B164" s="1">
+        <v>3.47</v>
+      </c>
+      <c r="C164" s="1">
+        <v>3.77</v>
+      </c>
+      <c r="D164" s="1">
+        <v>6.63</v>
+      </c>
+      <c r="E164" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B165" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="C165" s="1">
+        <v>2.61</v>
+      </c>
+      <c r="D165" s="1">
+        <v>3.72</v>
+      </c>
+      <c r="E165" s="1">
+        <v>3.88</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B166" s="1">
+        <v>3.23</v>
+      </c>
+      <c r="C166" s="1">
+        <v>4.18</v>
+      </c>
+      <c r="D166" s="1">
+        <v>5.51</v>
+      </c>
+      <c r="E166" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B167" s="1">
+        <v>3.02</v>
+      </c>
+      <c r="C167" s="1">
+        <v>4.36</v>
+      </c>
+      <c r="D167" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="E167" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B168" s="1">
+        <v>2.86</v>
+      </c>
+      <c r="C168" s="1">
+        <v>4.04</v>
+      </c>
+      <c r="D168" s="1">
+        <v>4.55</v>
+      </c>
+      <c r="E168" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B169" s="1">
+        <v>2.69</v>
+      </c>
+      <c r="C169" s="1">
+        <v>4.02</v>
+      </c>
+      <c r="D169" s="1">
+        <v>4.05</v>
+      </c>
+      <c r="E169" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B170" s="1">
+        <v>2.56</v>
+      </c>
+      <c r="C170" s="1">
+        <v>3.72</v>
+      </c>
+      <c r="D170" s="1">
+        <v>3.96</v>
+      </c>
+      <c r="E170" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B171" s="1">
+        <v>2.35</v>
+      </c>
+      <c r="C171" s="1">
+        <v>2.93</v>
+      </c>
+      <c r="D171" s="1">
+        <v>4.11</v>
+      </c>
+      <c r="E171" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B172" s="1">
+        <v>2.13</v>
+      </c>
+      <c r="C172" s="1">
+        <v>1.68</v>
+      </c>
+      <c r="D172" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="E172" s="1">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B173" s="1">
+        <v>2.05</v>
+      </c>
+      <c r="C173" s="1">
+        <v>1.63</v>
+      </c>
+      <c r="D173" s="1">
+        <v>2.37</v>
+      </c>
+      <c r="E173" s="1">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B174" s="1">
+        <v>1.89</v>
+      </c>
+      <c r="C174" s="1">
+        <v>2.65</v>
+      </c>
+      <c r="D174" s="1">
+        <v>3.03</v>
+      </c>
+      <c r="E174" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B175" s="1">
+        <v>1.89</v>
+      </c>
+      <c r="C175" s="1">
+        <v>2.59</v>
+      </c>
+      <c r="D175" s="1">
+        <v>3.07</v>
+      </c>
+      <c r="E175" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B176" s="1">
+        <v>1.86</v>
+      </c>
+      <c r="C176" s="1">
+        <v>2.38</v>
+      </c>
+      <c r="D176" s="1">
+        <v>3.21</v>
+      </c>
+      <c r="E176" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13">
+      <c r="A177" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B177" s="1">
+        <v>1.82</v>
+      </c>
+      <c r="C177" s="1">
+        <v>2.57</v>
+      </c>
+      <c r="D177" s="1">
+        <v>2.88</v>
+      </c>
+      <c r="E177" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13">
+      <c r="A178" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B178" s="1">
+        <v>1.39</v>
+      </c>
+      <c r="C178" s="1">
+        <v>1.53</v>
+      </c>
+      <c r="D178" s="1">
+        <v>2.63</v>
+      </c>
+      <c r="E178" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13">
+      <c r="A179" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B179" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="C179" s="1">
+        <v>1.56</v>
+      </c>
+      <c r="D179" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="E179" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13">
+      <c r="A180" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B180" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="C180" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="D180" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="E180" s="1">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13">
+      <c r="A181" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B181" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="C181" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="D181" s="1">
+        <v>1.53</v>
+      </c>
+      <c r="E181" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13">
+      <c r="A182" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B182" s="1">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C182" s="1">
+        <v>1.36</v>
+      </c>
+      <c r="D182" s="1">
+        <v>1.06</v>
+      </c>
+      <c r="E182" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13">
+      <c r="A183" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B183" s="1">
+        <v>0.57</v>
+      </c>
+      <c r="C183" s="1">
+        <v>1.72</v>
+      </c>
+      <c r="D183" s="1">
+        <v>0</v>
+      </c>
+      <c r="E183" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13">
+      <c r="A184" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B184" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="C184" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="D184" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="E184" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13">
+      <c r="A185" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B185" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="C185" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="D185" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="E185" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13">
+      <c r="A186" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B186" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="C186" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="D186" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="E186" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13">
+      <c r="A187" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B187" s="1">
+        <v>0</v>
+      </c>
+      <c r="C187" s="1">
+        <v>0</v>
+      </c>
+      <c r="D187" s="1">
+        <v>0</v>
+      </c>
+      <c r="E187" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13">
+      <c r="A189" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="G189" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H189" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="I189" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="J189" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="K189" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="L189" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="M189" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13">
+      <c r="A190" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B190" s="1">
+        <v>3.31</v>
+      </c>
+      <c r="C190" s="1">
+        <v>0</v>
+      </c>
+      <c r="D190" s="1">
+        <v>28</v>
+      </c>
+      <c r="E190" s="1">
+        <v>38</v>
+      </c>
+      <c r="F190" s="1">
+        <v>63</v>
+      </c>
+      <c r="G190" s="1">
+        <v>63</v>
+      </c>
+      <c r="H190" s="1">
+        <v>23</v>
+      </c>
+      <c r="I190" s="1">
+        <v>9</v>
+      </c>
+      <c r="J190" s="1">
+        <v>1</v>
+      </c>
+      <c r="K190" s="1">
+        <v>0</v>
+      </c>
+      <c r="L190" s="1">
+        <v>7.76</v>
+      </c>
+      <c r="M190" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13">
+      <c r="A191" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B191" s="1">
+        <v>4.29</v>
+      </c>
+      <c r="C191" s="1">
+        <v>0</v>
+      </c>
+      <c r="D191" s="1">
+        <v>21</v>
+      </c>
+      <c r="E191" s="1">
+        <v>55</v>
+      </c>
+      <c r="F191" s="1">
+        <v>71</v>
+      </c>
+      <c r="G191" s="1">
+        <v>55</v>
+      </c>
+      <c r="H191" s="1">
+        <v>46</v>
+      </c>
+      <c r="I191" s="1">
+        <v>12</v>
+      </c>
+      <c r="J191" s="1">
+        <v>2</v>
+      </c>
+      <c r="K191" s="1">
+        <v>0</v>
+      </c>
+      <c r="L191" s="1">
+        <v>9.359999999999999</v>
+      </c>
+      <c r="M191" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13">
+      <c r="A192" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B192" s="1">
+        <v>2.3</v>
+      </c>
+      <c r="C192" s="1">
+        <v>0</v>
+      </c>
+      <c r="D192" s="1">
+        <v>5</v>
+      </c>
+      <c r="E192" s="1">
+        <v>8</v>
+      </c>
+      <c r="F192" s="1">
+        <v>9</v>
+      </c>
+      <c r="G192" s="1">
+        <v>4</v>
+      </c>
+      <c r="H192" s="1">
+        <v>2</v>
+      </c>
+      <c r="I192" s="1">
+        <v>0</v>
+      </c>
+      <c r="J192" s="1">
+        <v>0</v>
+      </c>
+      <c r="K192" s="1">
+        <v>0</v>
+      </c>
+      <c r="L192" s="1">
+        <v>7</v>
+      </c>
+      <c r="M192" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B196" s="1">
+        <v>6.12</v>
+      </c>
+      <c r="C196" s="1">
+        <v>9.84</v>
+      </c>
+      <c r="D196" s="1">
+        <v>8.529999999999999</v>
+      </c>
+      <c r="E196" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B197" s="1">
+        <v>6.11</v>
+      </c>
+      <c r="C197" s="1">
+        <v>7.25</v>
+      </c>
+      <c r="D197" s="1">
+        <v>11.08</v>
+      </c>
+      <c r="E197" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B198" s="1">
+        <v>4.98</v>
+      </c>
+      <c r="C198" s="1">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="D198" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="E198" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B199" s="1">
+        <v>4.54</v>
+      </c>
+      <c r="C199" s="1">
+        <v>6.13</v>
+      </c>
+      <c r="D199" s="1">
+        <v>7.48</v>
+      </c>
+      <c r="E199" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B200" s="1">
+        <v>4.26</v>
+      </c>
+      <c r="C200" s="1">
+        <v>8.18</v>
+      </c>
+      <c r="D200" s="1">
+        <v>4.59</v>
+      </c>
+      <c r="E200" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B201" s="1">
+        <v>4</v>
+      </c>
+      <c r="C201" s="1">
+        <v>5.81</v>
+      </c>
+      <c r="D201" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="E201" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B202" s="1">
+        <v>3.78</v>
+      </c>
+      <c r="C202" s="1">
+        <v>5.38</v>
+      </c>
+      <c r="D202" s="1">
+        <v>5.96</v>
+      </c>
+      <c r="E202" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B203" s="1">
+        <v>2.77</v>
+      </c>
+      <c r="C203" s="1">
+        <v>4.69</v>
+      </c>
+      <c r="D203" s="1">
+        <v>3.63</v>
+      </c>
+      <c r="E203" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B204" s="1">
+        <v>2.74</v>
+      </c>
+      <c r="C204" s="1">
+        <v>5.67</v>
+      </c>
+      <c r="D204" s="1">
+        <v>2.55</v>
+      </c>
+      <c r="E204" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B205" s="1">
+        <v>2.38</v>
+      </c>
+      <c r="C205" s="1">
+        <v>3.44</v>
+      </c>
+      <c r="D205" s="1">
+        <v>3.69</v>
+      </c>
+      <c r="E205" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B206" s="1">
+        <v>2.38</v>
+      </c>
+      <c r="C206" s="1">
+        <v>3.71</v>
+      </c>
+      <c r="D206" s="1">
+        <v>3.42</v>
+      </c>
+      <c r="E206" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B207" s="1">
+        <v>2.17</v>
+      </c>
+      <c r="C207" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="D207" s="1">
+        <v>3.32</v>
+      </c>
+      <c r="E207" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B208" s="1">
+        <v>1.87</v>
+      </c>
+      <c r="C208" s="1">
+        <v>2.38</v>
+      </c>
+      <c r="D208" s="1">
+        <v>3.22</v>
+      </c>
+      <c r="E208" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B209" s="1">
+        <v>1.75</v>
+      </c>
+      <c r="C209" s="1">
+        <v>2.89</v>
+      </c>
+      <c r="D209" s="1">
+        <v>2.36</v>
+      </c>
+      <c r="E209" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B210" s="1">
+        <v>1.75</v>
+      </c>
+      <c r="C210" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="D210" s="1">
+        <v>1.66</v>
+      </c>
+      <c r="E210" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B211" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="C211" s="1">
+        <v>2.98</v>
+      </c>
+      <c r="D211" s="1">
+        <v>2.12</v>
+      </c>
+      <c r="E211" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B212" s="1">
+        <v>1.49</v>
+      </c>
+      <c r="C212" s="1">
+        <v>1.28</v>
+      </c>
+      <c r="D212" s="1">
+        <v>3.18</v>
+      </c>
+      <c r="E212" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B213" s="1">
+        <v>1.24</v>
+      </c>
+      <c r="C213" s="1">
+        <v>2.17</v>
+      </c>
+      <c r="D213" s="1">
+        <v>1.55</v>
+      </c>
+      <c r="E213" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B214" s="1">
+        <v>1.23</v>
+      </c>
+      <c r="C214" s="1">
+        <v>1.87</v>
+      </c>
+      <c r="D214" s="1">
+        <v>1.83</v>
+      </c>
+      <c r="E214" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B215" s="1">
+        <v>1.06</v>
+      </c>
+      <c r="C215" s="1">
+        <v>1.62</v>
+      </c>
+      <c r="D215" s="1">
+        <v>1.55</v>
+      </c>
+      <c r="E215" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B216" s="1">
+        <v>1.02</v>
+      </c>
+      <c r="C216" s="1">
+        <v>1.43</v>
+      </c>
+      <c r="D216" s="1">
+        <v>1.62</v>
+      </c>
+      <c r="E216" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B217" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="C217" s="1">
+        <v>1.28</v>
+      </c>
+      <c r="D217" s="1">
+        <v>1.59</v>
+      </c>
+      <c r="E217" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B218" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="C218" s="1">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="D218" s="1">
+        <v>1.47</v>
+      </c>
+      <c r="E218" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B219" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="C219" s="1">
+        <v>1.51</v>
+      </c>
+      <c r="D219" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="E219" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B220" s="1">
+        <v>0.71</v>
+      </c>
+      <c r="C220" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="D220" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="E220" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B221" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="C221" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="D221" s="1">
+        <v>1.09</v>
+      </c>
+      <c r="E221" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B222" s="1">
+        <v>0.55</v>
+      </c>
+      <c r="C222" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="D222" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="E222" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B223" s="1">
+        <v>0.55</v>
+      </c>
+      <c r="C223" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="D223" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="E223" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B224" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="C224" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="D224" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E224" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13">
+      <c r="A225" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B225" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="C225" s="1">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="D225" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="E225" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13">
+      <c r="A227" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F227" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="G227" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H227" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="I227" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="J227" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="K227" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="L227" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="M227" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13">
+      <c r="A228" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B228" s="1">
+        <v>3.39</v>
+      </c>
+      <c r="C228" s="1">
+        <v>0</v>
+      </c>
+      <c r="D228" s="1">
+        <v>131</v>
+      </c>
+      <c r="E228" s="1">
+        <v>20</v>
+      </c>
+      <c r="F228" s="1">
+        <v>45</v>
+      </c>
+      <c r="G228" s="1">
+        <v>25</v>
+      </c>
+      <c r="H228" s="1">
+        <v>29</v>
+      </c>
+      <c r="I228" s="1">
+        <v>18</v>
+      </c>
+      <c r="J228" s="1">
+        <v>4</v>
+      </c>
+      <c r="K228" s="1">
+        <v>0</v>
+      </c>
+      <c r="L228" s="1">
+        <v>9.07</v>
+      </c>
+      <c r="M228" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13">
+      <c r="A229" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B229" s="1">
+        <v>3.11</v>
+      </c>
+      <c r="C229" s="1">
+        <v>1</v>
+      </c>
+      <c r="D229" s="1">
+        <v>178</v>
+      </c>
+      <c r="E229" s="1">
+        <v>36</v>
+      </c>
+      <c r="F229" s="1">
+        <v>50</v>
+      </c>
+      <c r="G229" s="1">
+        <v>27</v>
+      </c>
+      <c r="H229" s="1">
+        <v>6</v>
+      </c>
+      <c r="I229" s="1">
+        <v>5</v>
+      </c>
+      <c r="J229" s="1">
+        <v>7</v>
+      </c>
+      <c r="K229" s="1">
+        <v>2</v>
+      </c>
+      <c r="L229" s="1">
+        <v>10.4</v>
+      </c>
+      <c r="M229" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13">
+      <c r="A230" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B230" s="1">
+        <v>0</v>
+      </c>
+      <c r="C230" s="1">
+        <v>0</v>
+      </c>
+      <c r="D230" s="1">
+        <v>0</v>
+      </c>
+      <c r="E230" s="1">
+        <v>0</v>
+      </c>
+      <c r="F230" s="1">
+        <v>0</v>
+      </c>
+      <c r="G230" s="1">
+        <v>0</v>
+      </c>
+      <c r="H230" s="1">
+        <v>0</v>
+      </c>
+      <c r="I230" s="1">
+        <v>0</v>
+      </c>
+      <c r="J230" s="1">
+        <v>0</v>
+      </c>
+      <c r="K230" s="1">
+        <v>0</v>
+      </c>
+      <c r="L230" s="1">
+        <v>0</v>
+      </c>
+      <c r="M230" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13">
+      <c r="A232" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13">
+      <c r="A233" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13">
+      <c r="A234" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B234" s="1">
+        <v>9.960000000000001</v>
+      </c>
+      <c r="C234" s="1">
+        <v>10.42</v>
+      </c>
+      <c r="D234" s="1">
+        <v>6.46</v>
+      </c>
+      <c r="E234" s="1">
+        <v>13.01</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13">
+      <c r="A235" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B235" s="1">
+        <v>5.47</v>
+      </c>
+      <c r="C235" s="1">
+        <v>4.14</v>
+      </c>
+      <c r="D235" s="1">
+        <v>6.7</v>
+      </c>
+      <c r="E235" s="1">
+        <v>5.58</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13">
+      <c r="A236" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B236" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="C236" s="1">
+        <v>3.34</v>
+      </c>
+      <c r="D236" s="1">
+        <v>3.44</v>
+      </c>
+      <c r="E236" s="1">
+        <v>4.91</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13">
+      <c r="A237" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B237" s="1">
+        <v>3.35</v>
+      </c>
+      <c r="C237" s="1">
+        <v>4.02</v>
+      </c>
+      <c r="D237" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="E237" s="1">
+        <v>3.53</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13">
+      <c r="A238" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B238" s="1">
+        <v>3.34</v>
+      </c>
+      <c r="C238" s="1">
+        <v>2.76</v>
+      </c>
+      <c r="D238" s="1">
+        <v>3.61</v>
+      </c>
+      <c r="E238" s="1">
+        <v>3.64</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13">
+      <c r="A239" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B239" s="1">
+        <v>3.33</v>
+      </c>
+      <c r="C239" s="1">
+        <v>2.54</v>
+      </c>
+      <c r="D239" s="1">
+        <v>3.22</v>
+      </c>
+      <c r="E239" s="1">
+        <v>4.23</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13">
+      <c r="A240" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B240" s="1">
+        <v>2.56</v>
+      </c>
+      <c r="C240" s="1">
+        <v>3.57</v>
+      </c>
+      <c r="D240" s="1">
+        <v>4.11</v>
+      </c>
+      <c r="E240" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13">
+      <c r="A241" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B241" s="1">
+        <v>2.47</v>
+      </c>
+      <c r="C241" s="1">
+        <v>2.43</v>
+      </c>
+      <c r="D241" s="1">
+        <v>2.13</v>
+      </c>
+      <c r="E241" s="1">
+        <v>2.84</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13">
+      <c r="A242" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B242" s="1">
+        <v>1.74</v>
+      </c>
+      <c r="C242" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="D242" s="1">
+        <v>1.38</v>
+      </c>
+      <c r="E242" s="1">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13">
+      <c r="A243" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B243" s="1">
+        <v>1.74</v>
+      </c>
+      <c r="C243" s="1">
+        <v>1.93</v>
+      </c>
+      <c r="D243" s="1">
+        <v>1.42</v>
+      </c>
+      <c r="E243" s="1">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13">
+      <c r="A244" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B244" s="1">
+        <v>1.42</v>
+      </c>
+      <c r="C244" s="1">
+        <v>1.72</v>
+      </c>
+      <c r="D244" s="1">
+        <v>1.26</v>
+      </c>
+      <c r="E244" s="1">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="246" spans="1:13">
+      <c r="A246" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E246" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F246" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="G246" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H246" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="I246" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="J246" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="K246" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="L246" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="M246" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13">
+      <c r="A247" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B247" s="1">
+        <v>3.52</v>
+      </c>
+      <c r="C247" s="1">
+        <v>13</v>
+      </c>
+      <c r="D247" s="1">
+        <v>93</v>
+      </c>
+      <c r="E247" s="1">
+        <v>65</v>
+      </c>
+      <c r="F247" s="1">
+        <v>5</v>
+      </c>
+      <c r="G247" s="1">
+        <v>7</v>
+      </c>
+      <c r="H247" s="1">
+        <v>4</v>
+      </c>
+      <c r="I247" s="1">
+        <v>0</v>
+      </c>
+      <c r="J247" s="1">
+        <v>0</v>
+      </c>
+      <c r="K247" s="1">
+        <v>0</v>
+      </c>
+      <c r="L247" s="1">
+        <v>17</v>
+      </c>
+      <c r="M247" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13">
+      <c r="A248" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B248" s="1">
+        <v>3.29</v>
+      </c>
+      <c r="C248" s="1">
+        <v>26</v>
+      </c>
+      <c r="D248" s="1">
+        <v>57</v>
+      </c>
+      <c r="E248" s="1">
+        <v>75</v>
+      </c>
+      <c r="F248" s="1">
+        <v>17</v>
+      </c>
+      <c r="G248" s="1">
+        <v>3</v>
+      </c>
+      <c r="H248" s="1">
+        <v>0</v>
+      </c>
+      <c r="I248" s="1">
+        <v>0</v>
+      </c>
+      <c r="J248" s="1">
+        <v>0</v>
+      </c>
+      <c r="K248" s="1">
+        <v>0</v>
+      </c>
+      <c r="L248" s="1">
+        <v>16.18</v>
+      </c>
+      <c r="M248" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="249" spans="1:13">
+      <c r="A249" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B249" s="1">
+        <v>4.28</v>
+      </c>
+      <c r="C249" s="1">
+        <v>21</v>
+      </c>
+      <c r="D249" s="1">
+        <v>58</v>
+      </c>
+      <c r="E249" s="1">
+        <v>63</v>
+      </c>
+      <c r="F249" s="1">
+        <v>32</v>
+      </c>
+      <c r="G249" s="1">
+        <v>10</v>
+      </c>
+      <c r="H249" s="1">
+        <v>0</v>
+      </c>
+      <c r="I249" s="1">
+        <v>1</v>
+      </c>
+      <c r="J249" s="1">
+        <v>0</v>
+      </c>
+      <c r="K249" s="1">
+        <v>0</v>
+      </c>
+      <c r="L249" s="1">
+        <v>18.5</v>
+      </c>
+      <c r="M249" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13">
+      <c r="A251" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="252" spans="1:13">
+      <c r="A252" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E252" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="253" spans="1:13">
+      <c r="A253" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B253" s="1">
+        <v>5.58</v>
+      </c>
+      <c r="C253" s="1">
+        <v>5.99</v>
+      </c>
+      <c r="D253" s="1">
+        <v>5.84</v>
+      </c>
+      <c r="E253" s="1">
+        <v>4.92</v>
+      </c>
+    </row>
+    <row r="254" spans="1:13">
+      <c r="A254" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B254" s="1">
+        <v>4.55</v>
+      </c>
+      <c r="C254" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="D254" s="1">
+        <v>4.13</v>
+      </c>
+      <c r="E254" s="1">
+        <v>4.22</v>
+      </c>
+    </row>
+    <row r="255" spans="1:13">
+      <c r="A255" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B255" s="1">
+        <v>3.66</v>
+      </c>
+      <c r="C255" s="1">
+        <v>4.38</v>
+      </c>
+      <c r="D255" s="1">
+        <v>3.78</v>
+      </c>
+      <c r="E255" s="1">
+        <v>2.83</v>
+      </c>
+    </row>
+    <row r="256" spans="1:13">
+      <c r="A256" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B256" s="1">
+        <v>3.17</v>
+      </c>
+      <c r="C256" s="1">
+        <v>3.73</v>
+      </c>
+      <c r="D256" s="1">
+        <v>3.27</v>
+      </c>
+      <c r="E256" s="1">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="257" spans="1:13">
+      <c r="A257" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B257" s="1">
+        <v>3.15</v>
+      </c>
+      <c r="C257" s="1">
+        <v>3.29</v>
+      </c>
+      <c r="D257" s="1">
+        <v>3.74</v>
+      </c>
+      <c r="E257" s="1">
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="258" spans="1:13">
+      <c r="A258" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B258" s="1">
+        <v>3.11</v>
+      </c>
+      <c r="C258" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="D258" s="1">
+        <v>2.93</v>
+      </c>
+      <c r="E258" s="1">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="259" spans="1:13">
+      <c r="A259" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B259" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="C259" s="1">
+        <v>2.2</v>
+      </c>
+      <c r="D259" s="1">
+        <v>1.41</v>
+      </c>
+      <c r="E259" s="1">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="260" spans="1:13">
+      <c r="A260" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B260" s="1">
+        <v>1.85</v>
+      </c>
+      <c r="C260" s="1">
+        <v>2.16</v>
+      </c>
+      <c r="D260" s="1">
+        <v>1.75</v>
+      </c>
+      <c r="E260" s="1">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="261" spans="1:13">
+      <c r="A261" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B261" s="1">
+        <v>1.72</v>
+      </c>
+      <c r="C261" s="1">
+        <v>1.76</v>
+      </c>
+      <c r="D261" s="1">
+        <v>1.72</v>
+      </c>
+      <c r="E261" s="1">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="262" spans="1:13">
+      <c r="A262" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B262" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="C262" s="1">
+        <v>1.48</v>
+      </c>
+      <c r="D262" s="1">
+        <v>1.37</v>
+      </c>
+      <c r="E262" s="1">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="263" spans="1:13">
+      <c r="A263" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B263" s="1">
+        <v>1.36</v>
+      </c>
+      <c r="C263" s="1">
+        <v>1.57</v>
+      </c>
+      <c r="D263" s="1">
+        <v>1.34</v>
+      </c>
+      <c r="E263" s="1">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="265" spans="1:13">
+      <c r="A265" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D265" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E265" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F265" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="G265" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H265" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="I265" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="J265" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="K265" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="L265" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="M265" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="266" spans="1:13">
+      <c r="A266" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B266" s="1">
+        <v>3.21</v>
+      </c>
+      <c r="C266" s="1">
+        <v>34</v>
+      </c>
+      <c r="D266" s="1">
+        <v>104</v>
+      </c>
+      <c r="E266" s="1">
+        <v>50</v>
+      </c>
+      <c r="F266" s="1">
+        <v>9</v>
+      </c>
+      <c r="G266" s="1">
+        <v>2</v>
+      </c>
+      <c r="H266" s="1">
+        <v>0</v>
+      </c>
+      <c r="I266" s="1">
+        <v>0</v>
+      </c>
+      <c r="J266" s="1">
+        <v>0</v>
+      </c>
+      <c r="K266" s="1">
+        <v>0</v>
+      </c>
+      <c r="L266" s="1">
+        <v>18.09</v>
+      </c>
+      <c r="M266" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="267" spans="1:13">
+      <c r="A267" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B267" s="1">
+        <v>2.84</v>
+      </c>
+      <c r="C267" s="1">
+        <v>36</v>
+      </c>
+      <c r="D267" s="1">
+        <v>73</v>
+      </c>
+      <c r="E267" s="1">
+        <v>43</v>
+      </c>
+      <c r="F267" s="1">
+        <v>15</v>
+      </c>
+      <c r="G267" s="1">
+        <v>2</v>
+      </c>
+      <c r="H267" s="1">
+        <v>0</v>
+      </c>
+      <c r="I267" s="1">
+        <v>0</v>
+      </c>
+      <c r="J267" s="1">
+        <v>0</v>
+      </c>
+      <c r="K267" s="1">
+        <v>0</v>
+      </c>
+      <c r="L267" s="1">
+        <v>15.36</v>
+      </c>
+      <c r="M267" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="268" spans="1:13">
+      <c r="A268" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B268" s="1">
+        <v>2.53</v>
+      </c>
+      <c r="C268" s="1">
+        <v>28</v>
+      </c>
+      <c r="D268" s="1">
+        <v>36</v>
+      </c>
+      <c r="E268" s="1">
+        <v>48</v>
+      </c>
+      <c r="F268" s="1">
+        <v>19</v>
+      </c>
+      <c r="G268" s="1">
+        <v>3</v>
+      </c>
+      <c r="H268" s="1">
+        <v>0</v>
+      </c>
+      <c r="I268" s="1">
+        <v>0</v>
+      </c>
+      <c r="J268" s="1">
+        <v>0</v>
+      </c>
+      <c r="K268" s="1">
+        <v>0</v>
+      </c>
+      <c r="L268" s="1">
+        <v>12.18</v>
+      </c>
+      <c r="M268" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="270" spans="1:13">
+      <c r="A270" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="271" spans="1:13">
+      <c r="A271" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D271" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E271" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="272" spans="1:13">
+      <c r="A272" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B272" s="1">
+        <v>6.79</v>
+      </c>
+      <c r="C272" s="1">
+        <v>6.04</v>
+      </c>
+      <c r="D272" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="E272" s="1">
+        <v>7.12</v>
+      </c>
+    </row>
+    <row r="273" spans="1:13">
+      <c r="A273" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B273" s="1">
+        <v>6.16</v>
+      </c>
+      <c r="C273" s="1">
+        <v>5.54</v>
+      </c>
+      <c r="D273" s="1">
+        <v>6.31</v>
+      </c>
+      <c r="E273" s="1">
+        <v>6.62</v>
+      </c>
+    </row>
+    <row r="274" spans="1:13">
+      <c r="A274" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B274" s="1">
+        <v>5.14</v>
+      </c>
+      <c r="C274" s="1">
+        <v>8.83</v>
+      </c>
+      <c r="D274" s="1">
+        <v>0</v>
+      </c>
+      <c r="E274" s="1">
+        <v>6.59</v>
+      </c>
+    </row>
+    <row r="275" spans="1:13">
+      <c r="A275" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B275" s="1">
+        <v>2.97</v>
+      </c>
+      <c r="C275" s="1">
+        <v>3.16</v>
+      </c>
+      <c r="D275" s="1">
+        <v>2.86</v>
+      </c>
+      <c r="E275" s="1">
+        <v>2.89</v>
+      </c>
+    </row>
+    <row r="276" spans="1:13">
+      <c r="A276" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B276" s="1">
+        <v>2.72</v>
+      </c>
+      <c r="C276" s="1">
+        <v>1.34</v>
+      </c>
+      <c r="D276" s="1">
+        <v>3.42</v>
+      </c>
+      <c r="E276" s="1">
+        <v>3.41</v>
+      </c>
+    </row>
+    <row r="277" spans="1:13">
+      <c r="A277" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B277" s="1">
+        <v>2.39</v>
+      </c>
+      <c r="C277" s="1">
+        <v>2.19</v>
+      </c>
+      <c r="D277" s="1">
+        <v>2.98</v>
+      </c>
+      <c r="E277" s="1">
+        <v>2.01</v>
+      </c>
+    </row>
+    <row r="278" spans="1:13">
+      <c r="A278" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B278" s="1">
+        <v>2.06</v>
+      </c>
+      <c r="C278" s="1">
+        <v>1.78</v>
+      </c>
+      <c r="D278" s="1">
+        <v>2.79</v>
+      </c>
+      <c r="E278" s="1">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="279" spans="1:13">
+      <c r="A279" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B279" s="1">
+        <v>1.65</v>
+      </c>
+      <c r="C279" s="1">
+        <v>1.63</v>
+      </c>
+      <c r="D279" s="1">
+        <v>1.66</v>
+      </c>
+      <c r="E279" s="1">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="280" spans="1:13">
+      <c r="A280" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B280" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="C280" s="1">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="D280" s="1">
+        <v>0</v>
+      </c>
+      <c r="E280" s="1">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="282" spans="1:13">
+      <c r="A282" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D282" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E282" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F282" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="G282" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H282" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="I282" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="J282" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="K282" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="L282" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="M282" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="283" spans="1:13">
+      <c r="A283" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B283" s="1">
+        <v>3.48</v>
+      </c>
+      <c r="C283" s="1">
+        <v>26</v>
+      </c>
+      <c r="D283" s="1">
+        <v>52</v>
+      </c>
+      <c r="E283" s="1">
+        <v>17</v>
+      </c>
+      <c r="F283" s="1">
+        <v>15</v>
+      </c>
+      <c r="G283" s="1">
+        <v>8</v>
+      </c>
+      <c r="H283" s="1">
+        <v>4</v>
+      </c>
+      <c r="I283" s="1">
+        <v>0</v>
+      </c>
+      <c r="J283" s="1">
+        <v>1</v>
+      </c>
+      <c r="K283" s="1">
+        <v>1</v>
+      </c>
+      <c r="L283" s="1">
+        <v>13.78</v>
+      </c>
+      <c r="M283" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="284" spans="1:13">
+      <c r="A284" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B284" s="1">
+        <v>3.89</v>
+      </c>
+      <c r="C284" s="1">
+        <v>29</v>
+      </c>
+      <c r="D284" s="1">
+        <v>53</v>
+      </c>
+      <c r="E284" s="1">
+        <v>45</v>
+      </c>
+      <c r="F284" s="1">
+        <v>10</v>
+      </c>
+      <c r="G284" s="1">
+        <v>4</v>
+      </c>
+      <c r="H284" s="1">
+        <v>0</v>
+      </c>
+      <c r="I284" s="1">
+        <v>0</v>
+      </c>
+      <c r="J284" s="1">
+        <v>0</v>
+      </c>
+      <c r="K284" s="1">
+        <v>0</v>
+      </c>
+      <c r="L284" s="1">
+        <v>20.14</v>
+      </c>
+      <c r="M284" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="285" spans="1:13">
+      <c r="A285" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B285" s="1">
+        <v>3.67</v>
+      </c>
+      <c r="C285" s="1">
+        <v>17</v>
+      </c>
+      <c r="D285" s="1">
+        <v>92</v>
+      </c>
+      <c r="E285" s="1">
+        <v>40</v>
+      </c>
+      <c r="F285" s="1">
+        <v>10</v>
+      </c>
+      <c r="G285" s="1">
+        <v>2</v>
+      </c>
+      <c r="H285" s="1">
+        <v>1</v>
+      </c>
+      <c r="I285" s="1">
+        <v>1</v>
+      </c>
+      <c r="J285" s="1">
+        <v>1</v>
+      </c>
+      <c r="K285" s="1">
+        <v>0</v>
+      </c>
+      <c r="L285" s="1">
+        <v>18.22</v>
+      </c>
+      <c r="M285" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="287" spans="1:13">
+      <c r="A287" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="288" spans="1:13">
+      <c r="A288" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D288" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E288" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="289" spans="1:13">
+      <c r="A289" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B289" s="1">
+        <v>7.49</v>
+      </c>
+      <c r="C289" s="1">
+        <v>6.39</v>
+      </c>
+      <c r="D289" s="1">
+        <v>7.25</v>
+      </c>
+      <c r="E289" s="1">
+        <v>8.84</v>
+      </c>
+    </row>
+    <row r="290" spans="1:13">
+      <c r="A290" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B290" s="1">
+        <v>7.19</v>
+      </c>
+      <c r="C290" s="1">
+        <v>7.41</v>
+      </c>
+      <c r="D290" s="1">
+        <v>6.99</v>
+      </c>
+      <c r="E290" s="1">
+        <v>7.16</v>
+      </c>
+    </row>
+    <row r="291" spans="1:13">
+      <c r="A291" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B291" s="1">
+        <v>6.48</v>
+      </c>
+      <c r="C291" s="1">
+        <v>6.47</v>
+      </c>
+      <c r="D291" s="1">
+        <v>5.54</v>
+      </c>
+      <c r="E291" s="1">
+        <v>7.42</v>
+      </c>
+    </row>
+    <row r="292" spans="1:13">
+      <c r="A292" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B292" s="1">
+        <v>5.13</v>
+      </c>
+      <c r="C292" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="D292" s="1">
+        <v>4.97</v>
+      </c>
+      <c r="E292" s="1">
+        <v>5.62</v>
+      </c>
+    </row>
+    <row r="293" spans="1:13">
+      <c r="A293" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B293" s="1">
+        <v>3.99</v>
+      </c>
+      <c r="C293" s="1">
+        <v>4.43</v>
+      </c>
+      <c r="D293" s="1">
+        <v>3.73</v>
+      </c>
+      <c r="E293" s="1">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="294" spans="1:13">
+      <c r="A294" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B294" s="1">
+        <v>3.44</v>
+      </c>
+      <c r="C294" s="1">
+        <v>3.53</v>
+      </c>
+      <c r="D294" s="1">
+        <v>3.53</v>
+      </c>
+      <c r="E294" s="1">
+        <v>3.26</v>
+      </c>
+    </row>
+    <row r="295" spans="1:13">
+      <c r="A295" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B295" s="1">
+        <v>2</v>
+      </c>
+      <c r="C295" s="1">
+        <v>2.28</v>
+      </c>
+      <c r="D295" s="1">
+        <v>1.89</v>
+      </c>
+      <c r="E295" s="1">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="296" spans="1:13">
+      <c r="A296" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B296" s="1">
+        <v>1.79</v>
+      </c>
+      <c r="C296" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="D296" s="1">
+        <v>1.99</v>
+      </c>
+      <c r="E296" s="1">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="297" spans="1:13">
+      <c r="A297" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B297" s="1">
+        <v>1.26</v>
+      </c>
+      <c r="C297" s="1">
+        <v>1</v>
+      </c>
+      <c r="D297" s="1">
+        <v>1.42</v>
+      </c>
+      <c r="E297" s="1">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="299" spans="1:13">
+      <c r="A299" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D299" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E299" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F299" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="G299" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H299" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="I299" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="J299" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="K299" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="L299" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="M299" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="300" spans="1:13">
+      <c r="A300" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B300" s="1">
+        <v>4.25</v>
+      </c>
+      <c r="C300" s="1">
+        <v>16</v>
+      </c>
+      <c r="D300" s="1">
+        <v>93</v>
+      </c>
+      <c r="E300" s="1">
+        <v>65</v>
+      </c>
+      <c r="F300" s="1">
+        <v>15</v>
+      </c>
+      <c r="G300" s="1">
+        <v>3</v>
+      </c>
+      <c r="H300" s="1">
+        <v>1</v>
+      </c>
+      <c r="I300" s="1">
+        <v>0</v>
+      </c>
+      <c r="J300" s="1">
+        <v>0</v>
+      </c>
+      <c r="K300" s="1">
+        <v>0</v>
+      </c>
+      <c r="L300" s="1">
+        <v>21.44</v>
+      </c>
+      <c r="M300" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="301" spans="1:13">
+      <c r="A301" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B301" s="1">
+        <v>4.15</v>
+      </c>
+      <c r="C301" s="1">
+        <v>18</v>
+      </c>
+      <c r="D301" s="1">
+        <v>79</v>
+      </c>
+      <c r="E301" s="1">
+        <v>54</v>
+      </c>
+      <c r="F301" s="1">
+        <v>14</v>
+      </c>
+      <c r="G301" s="1">
+        <v>4</v>
+      </c>
+      <c r="H301" s="1">
+        <v>2</v>
+      </c>
+      <c r="I301" s="1">
+        <v>0</v>
+      </c>
+      <c r="J301" s="1">
+        <v>0</v>
+      </c>
+      <c r="K301" s="1">
+        <v>1</v>
+      </c>
+      <c r="L301" s="1">
+        <v>19.11</v>
+      </c>
+      <c r="M301" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="302" spans="1:13">
+      <c r="A302" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B302" s="1">
+        <v>4.53</v>
+      </c>
+      <c r="C302" s="1">
+        <v>7</v>
+      </c>
+      <c r="D302" s="1">
+        <v>60</v>
+      </c>
+      <c r="E302" s="1">
+        <v>55</v>
+      </c>
+      <c r="F302" s="1">
+        <v>26</v>
+      </c>
+      <c r="G302" s="1">
+        <v>7</v>
+      </c>
+      <c r="H302" s="1">
+        <v>4</v>
+      </c>
+      <c r="I302" s="1">
+        <v>1</v>
+      </c>
+      <c r="J302" s="1">
+        <v>1</v>
+      </c>
+      <c r="K302" s="1">
+        <v>0</v>
+      </c>
+      <c r="L302" s="1">
+        <v>17.89</v>
+      </c>
+      <c r="M302" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="304" spans="1:13">
+      <c r="A304" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="305" spans="1:19">
+      <c r="A305" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D305" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E305" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="306" spans="1:19">
+      <c r="A306" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B306" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="C306" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="D306" s="1">
+        <v>3.04</v>
+      </c>
+      <c r="E306" s="1">
+        <v>3.16</v>
+      </c>
+    </row>
+    <row r="307" spans="1:19">
+      <c r="A307" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B307" s="1">
+        <v>3.75</v>
+      </c>
+      <c r="C307" s="1">
+        <v>4.52</v>
+      </c>
+      <c r="D307" s="1">
+        <v>3.33</v>
+      </c>
+      <c r="E307" s="1">
+        <v>3.41</v>
+      </c>
+    </row>
+    <row r="308" spans="1:19">
+      <c r="A308" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B308" s="1">
+        <v>3.73</v>
+      </c>
+      <c r="C308" s="1">
+        <v>4.13</v>
+      </c>
+      <c r="D308" s="1">
+        <v>4.18</v>
+      </c>
+      <c r="E308" s="1">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="309" spans="1:19">
+      <c r="A309" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B309" s="1">
+        <v>2.73</v>
+      </c>
+      <c r="C309" s="1">
+        <v>3.53</v>
+      </c>
+      <c r="D309" s="1">
+        <v>2.53</v>
+      </c>
+      <c r="E309" s="1">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="310" spans="1:19">
+      <c r="A310" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B310" s="1">
+        <v>2.55</v>
+      </c>
+      <c r="C310" s="1">
+        <v>2.54</v>
+      </c>
+      <c r="D310" s="1">
+        <v>2.91</v>
+      </c>
+      <c r="E310" s="1">
+        <v>2.19</v>
+      </c>
+    </row>
+    <row r="311" spans="1:19">
+      <c r="A311" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B311" s="1">
+        <v>2.34</v>
+      </c>
+      <c r="C311" s="1">
+        <v>2.99</v>
+      </c>
+      <c r="D311" s="1">
+        <v>2.28</v>
+      </c>
+      <c r="E311" s="1">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="312" spans="1:19">
+      <c r="A312" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B312" s="1">
+        <v>2.25</v>
+      </c>
+      <c r="C312" s="1">
+        <v>2.54</v>
+      </c>
+      <c r="D312" s="1">
+        <v>2.06</v>
+      </c>
+      <c r="E312" s="1">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="313" spans="1:19">
+      <c r="A313" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B313" s="1">
+        <v>1.93</v>
+      </c>
+      <c r="C313" s="1">
+        <v>1.82</v>
+      </c>
+      <c r="D313" s="1">
+        <v>2.14</v>
+      </c>
+      <c r="E313" s="1">
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="314" spans="1:19">
+      <c r="A314" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B314" s="1">
+        <v>1.84</v>
+      </c>
+      <c r="C314" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="D314" s="1">
+        <v>1.96</v>
+      </c>
+      <c r="E314" s="1">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="315" spans="1:19">
+      <c r="A315" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B315" s="1">
+        <v>1.81</v>
+      </c>
+      <c r="C315" s="1">
+        <v>2.25</v>
+      </c>
+      <c r="D315" s="1">
+        <v>1.71</v>
+      </c>
+      <c r="E315" s="1">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="316" spans="1:19">
+      <c r="A316" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B316" s="1">
+        <v>1.68</v>
+      </c>
+      <c r="C316" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="D316" s="1">
+        <v>2.13</v>
+      </c>
+      <c r="E316" s="1">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="317" spans="1:19">
+      <c r="A317" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B317" s="1">
+        <v>1.31</v>
+      </c>
+      <c r="C317" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="D317" s="1">
+        <v>1.18</v>
+      </c>
+      <c r="E317" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="319" spans="1:19">
+      <c r="A319" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D319" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E319" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="F319" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G319" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="H319" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="I319" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="J319" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="K319" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="L319" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="M319" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="N319" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="O319" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="P319" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q319" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="R319" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="S319" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="320" spans="1:19">
+      <c r="A320" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B320" s="1">
+        <v>2.82</v>
+      </c>
+      <c r="C320" s="1">
+        <v>0</v>
+      </c>
+      <c r="D320" s="1">
+        <v>8</v>
+      </c>
+      <c r="E320" s="1">
+        <v>0</v>
+      </c>
+      <c r="F320" s="1">
+        <v>1</v>
+      </c>
+      <c r="G320" s="1">
+        <v>12</v>
+      </c>
+      <c r="H320" s="1">
+        <v>0</v>
+      </c>
+      <c r="I320" s="1">
+        <v>0</v>
+      </c>
+      <c r="J320" s="1">
+        <v>17</v>
+      </c>
+      <c r="K320" s="1">
+        <v>0</v>
+      </c>
+      <c r="L320" s="1">
+        <v>0</v>
+      </c>
+      <c r="M320" s="1">
+        <v>7</v>
+      </c>
+      <c r="N320" s="1">
+        <v>0</v>
+      </c>
+      <c r="O320" s="1">
+        <v>0</v>
+      </c>
+      <c r="P320" s="1">
+        <v>7</v>
+      </c>
+      <c r="Q320" s="1">
+        <v>1</v>
+      </c>
+      <c r="R320" s="1">
+        <v>4.42</v>
+      </c>
+      <c r="S320" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="321" spans="1:19">
+      <c r="A321" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B321" s="1">
+        <v>2.45</v>
+      </c>
+      <c r="C321" s="1">
+        <v>0</v>
+      </c>
+      <c r="D321" s="1">
+        <v>5</v>
+      </c>
+      <c r="E321" s="1">
+        <v>0</v>
+      </c>
+      <c r="F321" s="1">
+        <v>2</v>
+      </c>
+      <c r="G321" s="1">
+        <v>16</v>
+      </c>
+      <c r="H321" s="1">
+        <v>3</v>
+      </c>
+      <c r="I321" s="1">
+        <v>2</v>
+      </c>
+      <c r="J321" s="1">
+        <v>22</v>
+      </c>
+      <c r="K321" s="1">
+        <v>7</v>
+      </c>
+      <c r="L321" s="1">
+        <v>0</v>
+      </c>
+      <c r="M321" s="1">
+        <v>10</v>
+      </c>
+      <c r="N321" s="1">
+        <v>2</v>
+      </c>
+      <c r="O321" s="1">
+        <v>0</v>
+      </c>
+      <c r="P321" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q321" s="1">
+        <v>0</v>
+      </c>
+      <c r="R321" s="1">
+        <v>5.92</v>
+      </c>
+      <c r="S321" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="322" spans="1:19">
+      <c r="A322" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B322" s="1">
+        <v>2.16</v>
+      </c>
+      <c r="C322" s="1">
+        <v>0</v>
+      </c>
+      <c r="D322" s="1">
+        <v>19</v>
+      </c>
+      <c r="E322" s="1">
+        <v>2</v>
+      </c>
+      <c r="F322" s="1">
+        <v>3</v>
+      </c>
+      <c r="G322" s="1">
+        <v>34</v>
+      </c>
+      <c r="H322" s="1">
+        <v>8</v>
+      </c>
+      <c r="I322" s="1">
+        <v>0</v>
+      </c>
+      <c r="J322" s="1">
+        <v>19</v>
+      </c>
+      <c r="K322" s="1">
+        <v>8</v>
+      </c>
+      <c r="L322" s="1">
+        <v>0</v>
+      </c>
+      <c r="M322" s="1">
+        <v>3</v>
+      </c>
+      <c r="N322" s="1">
+        <v>9</v>
+      </c>
+      <c r="O322" s="1">
+        <v>0</v>
+      </c>
+      <c r="P322" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q322" s="1">
+        <v>0</v>
+      </c>
+      <c r="R322" s="1">
+        <v>8.75</v>
+      </c>
+      <c r="S322" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="324" spans="1:19">
+      <c r="A324" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="325" spans="1:19">
+      <c r="A325" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D325" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E325" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="F325" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="326" spans="1:19">
+      <c r="A326" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B326" s="1">
+        <v>3.48</v>
+      </c>
+      <c r="C326" s="1">
+        <v>3.78</v>
+      </c>
+      <c r="D326" s="1">
+        <v>3.21</v>
+      </c>
+      <c r="E326" s="1">
+        <v>3.87</v>
+      </c>
+      <c r="F326" s="1">
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="327" spans="1:19">
+      <c r="A327" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B327" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="C327" s="1">
+        <v>2.23</v>
+      </c>
+      <c r="D327" s="1">
+        <v>3.56</v>
+      </c>
+      <c r="E327" s="1">
+        <v>2.53</v>
+      </c>
+      <c r="F327" s="1">
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="328" spans="1:19">
+      <c r="A328" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B328" s="1">
+        <v>1.76</v>
+      </c>
+      <c r="C328" s="1">
+        <v>1.63</v>
+      </c>
+      <c r="D328" s="1">
+        <v>2.21</v>
+      </c>
+      <c r="E328" s="1">
+        <v>1.24</v>
+      </c>
+      <c r="F328" s="1">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="329" spans="1:19">
+      <c r="A329" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B329" s="1">
+        <v>1.47</v>
+      </c>
+      <c r="C329" s="1">
+        <v>2.05</v>
+      </c>
+      <c r="D329" s="1">
+        <v>1.29</v>
+      </c>
+      <c r="E329" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="F329" s="1">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="330" spans="1:19">
+      <c r="A330" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B330" s="1">
+        <v>1.24</v>
+      </c>
+      <c r="C330" s="1">
+        <v>1.11</v>
+      </c>
+      <c r="D330" s="1">
+        <v>1.36</v>
+      </c>
+      <c r="E330" s="1">
+        <v>1.15</v>
+      </c>
+      <c r="F330" s="1">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="331" spans="1:19">
+      <c r="A331" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B331" s="1">
+        <v>1.13</v>
+      </c>
+      <c r="C331" s="1">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="D331" s="1">
+        <v>1.01</v>
+      </c>
+      <c r="E331" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="F331" s="1">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="332" spans="1:19">
+      <c r="A332" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B332" s="1">
+        <v>1.09</v>
+      </c>
+      <c r="C332" s="1">
+        <v>1.18</v>
+      </c>
+      <c r="D332" s="1">
+        <v>1.41</v>
+      </c>
+      <c r="E332" s="1">
+        <v>0</v>
+      </c>
+      <c r="F332" s="1">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="333" spans="1:19">
+      <c r="A333" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B333" s="1">
+        <v>1.08</v>
+      </c>
+      <c r="C333" s="1">
+        <v>1.01</v>
+      </c>
+      <c r="D333" s="1">
+        <v>1.11</v>
+      </c>
+      <c r="E333" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="F333" s="1">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="334" spans="1:19">
+      <c r="A334" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B334" s="1">
+        <v>1.07</v>
+      </c>
+      <c r="C334" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="D334" s="1">
+        <v>1.21</v>
+      </c>
+      <c r="E334" s="1">
+        <v>1.04</v>
+      </c>
+      <c r="F334" s="1">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="335" spans="1:19">
+      <c r="A335" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B335" s="1">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="C335" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="D335" s="1">
+        <v>1.06</v>
+      </c>
+      <c r="E335" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="F335" s="1">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="336" spans="1:19">
+      <c r="A336" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B336" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="C336" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="D336" s="1">
+        <v>1.05</v>
+      </c>
+      <c r="E336" s="1">
+        <v>1.06</v>
+      </c>
+      <c r="F336" s="1">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="337" spans="1:19">
+      <c r="A337" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B337" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="C337" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="D337" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="E337" s="1">
+        <v>1.29</v>
+      </c>
+      <c r="F337" s="1">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="339" spans="1:19">
+      <c r="A339" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D339" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E339" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="F339" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G339" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="H339" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="I339" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="J339" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="K339" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="L339" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="M339" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="N339" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="O339" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="P339" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q339" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="R339" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="S339" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="340" spans="1:19">
+      <c r="A340" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B340" s="1">
+        <v>1.43</v>
+      </c>
+      <c r="C340" s="1">
+        <v>0</v>
+      </c>
+      <c r="D340" s="1">
+        <v>71</v>
+      </c>
+      <c r="E340" s="1">
+        <v>0</v>
+      </c>
+      <c r="F340" s="1">
+        <v>0</v>
+      </c>
+      <c r="G340" s="1">
+        <v>67</v>
+      </c>
+      <c r="H340" s="1">
+        <v>1</v>
+      </c>
+      <c r="I340" s="1">
+        <v>0</v>
+      </c>
+      <c r="J340" s="1">
+        <v>12</v>
+      </c>
+      <c r="K340" s="1">
+        <v>0</v>
+      </c>
+      <c r="L340" s="1">
+        <v>0</v>
+      </c>
+      <c r="M340" s="1">
+        <v>10</v>
+      </c>
+      <c r="N340" s="1">
+        <v>0</v>
+      </c>
+      <c r="O340" s="1">
+        <v>0</v>
+      </c>
+      <c r="P340" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q340" s="1">
+        <v>0</v>
+      </c>
+      <c r="R340" s="1">
+        <v>13.58</v>
+      </c>
+      <c r="S340" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="341" spans="1:19">
+      <c r="A341" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B341" s="1">
+        <v>1.62</v>
+      </c>
+      <c r="C341" s="1">
+        <v>0</v>
+      </c>
+      <c r="D341" s="1">
+        <v>92</v>
+      </c>
+      <c r="E341" s="1">
+        <v>0</v>
+      </c>
+      <c r="F341" s="1">
+        <v>0</v>
+      </c>
+      <c r="G341" s="1">
+        <v>47</v>
+      </c>
+      <c r="H341" s="1">
+        <v>3</v>
+      </c>
+      <c r="I341" s="1">
+        <v>0</v>
+      </c>
+      <c r="J341" s="1">
+        <v>30</v>
+      </c>
+      <c r="K341" s="1">
+        <v>3</v>
+      </c>
+      <c r="L341" s="1">
+        <v>0</v>
+      </c>
+      <c r="M341" s="1">
+        <v>3</v>
+      </c>
+      <c r="N341" s="1">
+        <v>4</v>
+      </c>
+      <c r="O341" s="1">
+        <v>0</v>
+      </c>
+      <c r="P341" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q341" s="1">
+        <v>0</v>
+      </c>
+      <c r="R341" s="1">
+        <v>15.25</v>
+      </c>
+      <c r="S341" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="342" spans="1:19">
+      <c r="A342" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B342" s="1">
+        <v>1.48</v>
+      </c>
+      <c r="C342" s="1">
+        <v>3</v>
+      </c>
+      <c r="D342" s="1">
+        <v>19</v>
+      </c>
+      <c r="E342" s="1">
+        <v>0</v>
+      </c>
+      <c r="F342" s="1">
+        <v>7</v>
+      </c>
+      <c r="G342" s="1">
+        <v>45</v>
+      </c>
+      <c r="H342" s="1">
+        <v>0</v>
+      </c>
+      <c r="I342" s="1">
+        <v>4</v>
+      </c>
+      <c r="J342" s="1">
+        <v>40</v>
+      </c>
+      <c r="K342" s="1">
+        <v>0</v>
+      </c>
+      <c r="L342" s="1">
+        <v>1</v>
+      </c>
+      <c r="M342" s="1">
+        <v>5</v>
+      </c>
+      <c r="N342" s="1">
+        <v>0</v>
+      </c>
+      <c r="O342" s="1">
+        <v>0</v>
+      </c>
+      <c r="P342" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q342" s="1">
+        <v>0</v>
+      </c>
+      <c r="R342" s="1">
+        <v>11.36</v>
+      </c>
+      <c r="S342" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="343" spans="1:19">
+      <c r="A343" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B343" s="1">
+        <v>1.57</v>
+      </c>
+      <c r="C343" s="1">
+        <v>0</v>
+      </c>
+      <c r="D343" s="1">
+        <v>75</v>
+      </c>
+      <c r="E343" s="1">
+        <v>8</v>
+      </c>
+      <c r="F343" s="1">
+        <v>1</v>
+      </c>
+      <c r="G343" s="1">
+        <v>56</v>
+      </c>
+      <c r="H343" s="1">
+        <v>2</v>
+      </c>
+      <c r="I343" s="1">
+        <v>0</v>
+      </c>
+      <c r="J343" s="1">
+        <v>31</v>
+      </c>
+      <c r="K343" s="1">
+        <v>3</v>
+      </c>
+      <c r="L343" s="1">
+        <v>0</v>
+      </c>
+      <c r="M343" s="1">
+        <v>4</v>
+      </c>
+      <c r="N343" s="1">
+        <v>0</v>
+      </c>
+      <c r="O343" s="1">
+        <v>0</v>
+      </c>
+      <c r="P343" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q343" s="1">
+        <v>0</v>
+      </c>
+      <c r="R343" s="1">
+        <v>15.08</v>
+      </c>
+      <c r="S343" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="345" spans="1:19">
+      <c r="A345" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="346" spans="1:19">
+      <c r="A346" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D346" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E346" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="347" spans="1:19">
+      <c r="A347" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B347" s="1">
+        <v>3.25</v>
+      </c>
+      <c r="C347" s="1">
+        <v>2.25</v>
+      </c>
+      <c r="D347" s="1">
+        <v>3.56</v>
+      </c>
+      <c r="E347" s="1">
+        <v>3.94</v>
+      </c>
+    </row>
+    <row r="348" spans="1:19">
+      <c r="A348" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B348" s="1">
+        <v>3.21</v>
+      </c>
+      <c r="C348" s="1">
+        <v>3.57</v>
+      </c>
+      <c r="D348" s="1">
+        <v>3.02</v>
+      </c>
+      <c r="E348" s="1">
+        <v>3.03</v>
+      </c>
+    </row>
+    <row r="349" spans="1:19">
+      <c r="A349" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B349" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="C349" s="1">
+        <v>1.74</v>
+      </c>
+      <c r="D349" s="1">
+        <v>2.44</v>
+      </c>
+      <c r="E349" s="1">
+        <v>3.32</v>
+      </c>
+    </row>
+    <row r="350" spans="1:19">
+      <c r="A350" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B350" s="1">
+        <v>2.26</v>
+      </c>
+      <c r="C350" s="1">
+        <v>3.26</v>
+      </c>
+      <c r="D350" s="1">
+        <v>3.52</v>
+      </c>
+      <c r="E350" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:19">
+      <c r="A351" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B351" s="1">
+        <v>2.22</v>
+      </c>
+      <c r="C351" s="1">
+        <v>1.82</v>
+      </c>
+      <c r="D351" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="E351" s="1">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="352" spans="1:19">
+      <c r="A352" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B352" s="1">
+        <v>1.95</v>
+      </c>
+      <c r="C352" s="1">
+        <v>1.97</v>
+      </c>
+      <c r="D352" s="1">
+        <v>1.71</v>
+      </c>
+      <c r="E352" s="1">
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="353" spans="1:19">
+      <c r="A353" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B353" s="1">
+        <v>1.85</v>
+      </c>
+      <c r="C353" s="1">
+        <v>1.63</v>
+      </c>
+      <c r="D353" s="1">
+        <v>2.03</v>
+      </c>
+      <c r="E353" s="1">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="354" spans="1:19">
+      <c r="A354" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B354" s="1">
+        <v>1.83</v>
+      </c>
+      <c r="C354" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="D354" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="E354" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="355" spans="1:19">
+      <c r="A355" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B355" s="1">
+        <v>1.65</v>
+      </c>
+      <c r="C355" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="D355" s="1">
+        <v>1.12</v>
+      </c>
+      <c r="E355" s="1">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="356" spans="1:19">
+      <c r="A356" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B356" s="1">
+        <v>1.61</v>
+      </c>
+      <c r="C356" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="D356" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="E356" s="1">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="357" spans="1:19">
+      <c r="A357" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B357" s="1">
+        <v>1.37</v>
+      </c>
+      <c r="C357" s="1">
+        <v>1.12</v>
+      </c>
+      <c r="D357" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="E357" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="359" spans="1:19">
+      <c r="A359" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C359" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D359" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E359" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="F359" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G359" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="H359" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="I359" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="J359" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="K359" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="L359" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="M359" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="N359" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="O359" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="P359" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q359" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="R359" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="S359" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="360" spans="1:19">
+      <c r="A360" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B360" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="C360" s="1">
+        <v>0</v>
+      </c>
+      <c r="D360" s="1">
+        <v>1</v>
+      </c>
+      <c r="E360" s="1">
+        <v>0</v>
+      </c>
+      <c r="F360" s="1">
+        <v>0</v>
+      </c>
+      <c r="G360" s="1">
+        <v>18</v>
+      </c>
+      <c r="H360" s="1">
+        <v>2</v>
+      </c>
+      <c r="I360" s="1">
+        <v>2</v>
+      </c>
+      <c r="J360" s="1">
+        <v>12</v>
+      </c>
+      <c r="K360" s="1">
+        <v>2</v>
+      </c>
+      <c r="L360" s="1">
+        <v>0</v>
+      </c>
+      <c r="M360" s="1">
+        <v>2</v>
+      </c>
+      <c r="N360" s="1">
+        <v>0</v>
+      </c>
+      <c r="O360" s="1">
+        <v>0</v>
+      </c>
+      <c r="P360" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q360" s="1">
+        <v>0</v>
+      </c>
+      <c r="R360" s="1">
+        <v>3.55</v>
+      </c>
+      <c r="S360" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="361" spans="1:19">
+      <c r="A361" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B361" s="1">
+        <v>2.35</v>
+      </c>
+      <c r="C361" s="1">
+        <v>0</v>
+      </c>
+      <c r="D361" s="1">
+        <v>3</v>
+      </c>
+      <c r="E361" s="1">
+        <v>1</v>
+      </c>
+      <c r="F361" s="1">
+        <v>0</v>
+      </c>
+      <c r="G361" s="1">
+        <v>16</v>
+      </c>
+      <c r="H361" s="1">
+        <v>6</v>
+      </c>
+      <c r="I361" s="1">
+        <v>0</v>
+      </c>
+      <c r="J361" s="1">
+        <v>8</v>
+      </c>
+      <c r="K361" s="1">
+        <v>2</v>
+      </c>
+      <c r="L361" s="1">
+        <v>0</v>
+      </c>
+      <c r="M361" s="1">
+        <v>2</v>
+      </c>
+      <c r="N361" s="1">
+        <v>0</v>
+      </c>
+      <c r="O361" s="1">
+        <v>0</v>
+      </c>
+      <c r="P361" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q361" s="1">
+        <v>0</v>
+      </c>
+      <c r="R361" s="1">
+        <v>3.45</v>
+      </c>
+      <c r="S361" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="362" spans="1:19">
+      <c r="A362" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B362" s="1">
+        <v>2.23</v>
+      </c>
+      <c r="C362" s="1">
+        <v>0</v>
+      </c>
+      <c r="D362" s="1">
+        <v>7</v>
+      </c>
+      <c r="E362" s="1">
+        <v>2</v>
+      </c>
+      <c r="F362" s="1">
+        <v>0</v>
+      </c>
+      <c r="G362" s="1">
+        <v>11</v>
+      </c>
+      <c r="H362" s="1">
+        <v>4</v>
+      </c>
+      <c r="I362" s="1">
+        <v>0</v>
+      </c>
+      <c r="J362" s="1">
+        <v>8</v>
+      </c>
+      <c r="K362" s="1">
+        <v>2</v>
+      </c>
+      <c r="L362" s="1">
+        <v>1</v>
+      </c>
+      <c r="M362" s="1">
+        <v>1</v>
+      </c>
+      <c r="N362" s="1">
+        <v>0</v>
+      </c>
+      <c r="O362" s="1">
+        <v>0</v>
+      </c>
+      <c r="P362" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q362" s="1">
+        <v>0</v>
+      </c>
+      <c r="R362" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="S362" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="364" spans="1:19">
+      <c r="A364" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="365" spans="1:19">
+      <c r="A365" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C365" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D365" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E365" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="F365" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="366" spans="1:19">
+      <c r="A366" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B366" s="1">
+        <v>2.63</v>
+      </c>
+      <c r="C366" s="1">
+        <v>3.21</v>
+      </c>
+      <c r="D366" s="1">
+        <v>2.95</v>
+      </c>
+      <c r="E366" s="1">
+        <v>2.45</v>
+      </c>
+      <c r="F366" s="1">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="367" spans="1:19">
+      <c r="A367" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B367" s="1">
+        <v>1.89</v>
+      </c>
+      <c r="C367" s="1">
+        <v>2.26</v>
+      </c>
+      <c r="D367" s="1">
+        <v>1.96</v>
+      </c>
+      <c r="E367" s="1">
+        <v>1.42</v>
+      </c>
+      <c r="F367" s="1">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="368" spans="1:19">
+      <c r="A368" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B368" s="1">
+        <v>1.79</v>
+      </c>
+      <c r="C368" s="1">
+        <v>1.97</v>
+      </c>
+      <c r="D368" s="1">
+        <v>2.44</v>
+      </c>
+      <c r="E368" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="F368" s="1">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="369" spans="1:19">
+      <c r="A369" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B369" s="1">
+        <v>1.72</v>
+      </c>
+      <c r="C369" s="1">
+        <v>1.94</v>
+      </c>
+      <c r="D369" s="1">
+        <v>1.73</v>
+      </c>
+      <c r="E369" s="1">
+        <v>1.37</v>
+      </c>
+      <c r="F369" s="1">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="370" spans="1:19">
+      <c r="A370" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B370" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="C370" s="1">
+        <v>1.93</v>
+      </c>
+      <c r="D370" s="1">
+        <v>2.07</v>
+      </c>
+      <c r="E370" s="1">
+        <v>1.11</v>
+      </c>
+      <c r="F370" s="1">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="371" spans="1:19">
+      <c r="A371" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B371" s="1">
+        <v>1.64</v>
+      </c>
+      <c r="C371" s="1">
+        <v>1.56</v>
+      </c>
+      <c r="D371" s="1">
+        <v>1.76</v>
+      </c>
+      <c r="E371" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="F371" s="1">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="372" spans="1:19">
+      <c r="A372" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B372" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="C372" s="1">
+        <v>1.16</v>
+      </c>
+      <c r="D372" s="1">
+        <v>2.06</v>
+      </c>
+      <c r="E372" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="F372" s="1">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="373" spans="1:19">
+      <c r="A373" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B373" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="C373" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="D373" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="E373" s="1">
+        <v>0.49</v>
+      </c>
+      <c r="F373" s="1">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="374" spans="1:19">
+      <c r="A374" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B374" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="C374" s="1">
+        <v>1.24</v>
+      </c>
+      <c r="D374" s="1">
+        <v>0</v>
+      </c>
+      <c r="E374" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="F374" s="1">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="375" spans="1:19">
+      <c r="A375" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B375" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="C375" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="D375" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="E375" s="1">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="F375" s="1">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="376" spans="1:19">
+      <c r="A376" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B376" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="C376" s="1">
+        <v>0</v>
+      </c>
+      <c r="D376" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="E376" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="F376" s="1">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="378" spans="1:19">
+      <c r="A378" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B378" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C378" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D378" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E378" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="F378" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G378" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="H378" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="I378" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="J378" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="K378" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="L378" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="M378" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="N378" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="O378" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="P378" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q378" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="R378" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="S378" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="379" spans="1:19">
+      <c r="A379" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B379" s="1">
+        <v>1.72</v>
+      </c>
+      <c r="C379" s="1">
+        <v>0</v>
+      </c>
+      <c r="D379" s="1">
+        <v>85</v>
+      </c>
+      <c r="E379" s="1">
+        <v>0</v>
+      </c>
+      <c r="F379" s="1">
+        <v>0</v>
+      </c>
+      <c r="G379" s="1">
+        <v>55</v>
+      </c>
+      <c r="H379" s="1">
+        <v>0</v>
+      </c>
+      <c r="I379" s="1">
+        <v>0</v>
+      </c>
+      <c r="J379" s="1">
+        <v>14</v>
+      </c>
+      <c r="K379" s="1">
+        <v>0</v>
+      </c>
+      <c r="L379" s="1">
+        <v>0</v>
+      </c>
+      <c r="M379" s="1">
+        <v>8</v>
+      </c>
+      <c r="N379" s="1">
+        <v>0</v>
+      </c>
+      <c r="O379" s="1">
+        <v>0</v>
+      </c>
+      <c r="P379" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q379" s="1">
+        <v>0</v>
+      </c>
+      <c r="R379" s="1">
+        <v>16.4</v>
+      </c>
+      <c r="S379" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="380" spans="1:19">
+      <c r="A380" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B380" s="1">
+        <v>1.81</v>
+      </c>
+      <c r="C380" s="1">
+        <v>0</v>
+      </c>
+      <c r="D380" s="1">
+        <v>25</v>
+      </c>
+      <c r="E380" s="1">
+        <v>0</v>
+      </c>
+      <c r="F380" s="1">
+        <v>0</v>
+      </c>
+      <c r="G380" s="1">
+        <v>80</v>
+      </c>
+      <c r="H380" s="1">
+        <v>1</v>
+      </c>
+      <c r="I380" s="1">
+        <v>0</v>
+      </c>
+      <c r="J380" s="1">
+        <v>35</v>
+      </c>
+      <c r="K380" s="1">
+        <v>0</v>
+      </c>
+      <c r="L380" s="1">
+        <v>0</v>
+      </c>
+      <c r="M380" s="1">
+        <v>3</v>
+      </c>
+      <c r="N380" s="1">
+        <v>0</v>
+      </c>
+      <c r="O380" s="1">
+        <v>0</v>
+      </c>
+      <c r="P380" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q380" s="1">
+        <v>0</v>
+      </c>
+      <c r="R380" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="S380" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="381" spans="1:19">
+      <c r="A381" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B381" s="1">
+        <v>1.1</v>
+      </c>
+      <c r="C381" s="1">
+        <v>0</v>
+      </c>
+      <c r="D381" s="1">
+        <v>75</v>
+      </c>
+      <c r="E381" s="1">
+        <v>0</v>
+      </c>
+      <c r="F381" s="1">
+        <v>0</v>
+      </c>
+      <c r="G381" s="1">
+        <v>36</v>
+      </c>
+      <c r="H381" s="1">
+        <v>0</v>
+      </c>
+      <c r="I381" s="1">
+        <v>0</v>
+      </c>
+      <c r="J381" s="1">
+        <v>10</v>
+      </c>
+      <c r="K381" s="1">
+        <v>1</v>
+      </c>
+      <c r="L381" s="1">
+        <v>0</v>
+      </c>
+      <c r="M381" s="1">
+        <v>2</v>
+      </c>
+      <c r="N381" s="1">
+        <v>0</v>
+      </c>
+      <c r="O381" s="1">
+        <v>0</v>
+      </c>
+      <c r="P381" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q381" s="1">
+        <v>0</v>
+      </c>
+      <c r="R381" s="1">
+        <v>11.27</v>
+      </c>
+      <c r="S381" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="382" spans="1:19">
+      <c r="A382" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B382" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="C382" s="1">
+        <v>0</v>
+      </c>
+      <c r="D382" s="1">
+        <v>67</v>
+      </c>
+      <c r="E382" s="1">
+        <v>0</v>
+      </c>
+      <c r="F382" s="1">
+        <v>0</v>
+      </c>
+      <c r="G382" s="1">
+        <v>50</v>
+      </c>
+      <c r="H382" s="1">
+        <v>1</v>
+      </c>
+      <c r="I382" s="1">
+        <v>0</v>
+      </c>
+      <c r="J382" s="1">
+        <v>13</v>
+      </c>
+      <c r="K382" s="1">
+        <v>0</v>
+      </c>
+      <c r="L382" s="1">
+        <v>0</v>
+      </c>
+      <c r="M382" s="1">
+        <v>5</v>
+      </c>
+      <c r="N382" s="1">
+        <v>0</v>
+      </c>
+      <c r="O382" s="1">
+        <v>0</v>
+      </c>
+      <c r="P382" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q382" s="1">
+        <v>0</v>
+      </c>
+      <c r="R382" s="1">
+        <v>12.45</v>
+      </c>
+      <c r="S382" s="1">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>